--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B6AC35-7948-464B-8E02-0645DFB95D78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE472212-9D8F-4EAA-98F5-ED2744D1DB7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="795" yWindow="1935" windowWidth="28005" windowHeight="14070" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="845">
   <si>
     <t>type</t>
   </si>
@@ -1136,9 +1136,6 @@
     <t>h_consent_relation</t>
   </si>
   <si>
-    <t>selected(${h_notint_hh}, ‘Other’)</t>
-  </si>
-  <si>
     <t>selected(${h_consent_hoh}, ‘1.Yes’)</t>
   </si>
   <si>
@@ -2519,9 +2516,6 @@
     <t>selected(${h_consent_hoh}, ‘1.Yes’) and (not(selected(${h_sanit_facil}, ‘14. No facility/bush/field’)) or selected(${h_sanit_empty}, ‘1. Yes emptied’))</t>
   </si>
   <si>
-    <t>selected(${h_consent_hoh}, ‘2.N’)</t>
-  </si>
-  <si>
     <t>Generating household IDs based on kebele and house number</t>
   </si>
   <si>
@@ -2555,10 +2549,22 @@
     <t>selected(${h_consent_hoh}, ‘2.No’)</t>
   </si>
   <si>
-    <t>3. Ethiopia - Reassessment Form Household</t>
-  </si>
-  <si>
-    <t>eth_sch_sth_remaping_3_household_202105</t>
+    <t>not(selected(${h_interviewed_hh}, ‘1.No’))</t>
+  </si>
+  <si>
+    <t>not(selected(${h_interviewed_hh}, ‘1.No’)) and selected(${h_consent_hoh}, ‘1.Yes’)</t>
+  </si>
+  <si>
+    <t>selected(${h_interviewed_hh}, ‘1.No’) and selected(${h_notint_hh}, 'Other')</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_3_household_202105_V2</t>
+  </si>
+  <si>
+    <t>202105_V2</t>
+  </si>
+  <si>
+    <t>3. Ethiopia - Reassessment Form Household V2</t>
   </si>
 </sst>
 </file>
@@ -3423,17 +3429,17 @@
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F96" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H115" sqref="H115"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D75" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" style="1" customWidth="1"/>
     <col min="4" max="7" width="43.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
@@ -3485,7 +3491,7 @@
         <v>121</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="O1" s="7"/>
     </row>
@@ -3652,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>14</v>
@@ -3666,19 +3672,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>356</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>123</v>
@@ -3692,19 +3698,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>359</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>123</v>
@@ -3749,10 +3755,10 @@
         <v>364</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>368</v>
+        <v>841</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>123</v>
@@ -3771,6 +3777,9 @@
       <c r="D18" s="32" t="s">
         <v>18</v>
       </c>
+      <c r="H18" s="32" t="s">
+        <v>839</v>
+      </c>
       <c r="J18" s="1" t="s">
         <v>123</v>
       </c>
@@ -3786,7 +3795,7 @@
         <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>829</v>
+        <v>840</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>123</v>
@@ -3803,7 +3812,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>123</v>
@@ -3814,13 +3823,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>123</v>
@@ -3837,7 +3846,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3845,13 +3854,13 @@
         <v>151</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>123</v>
@@ -3862,13 +3871,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>123</v>
@@ -3879,13 +3888,13 @@
         <v>8</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C26" s="32" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>123</v>
@@ -3896,7 +3905,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>26</v>
@@ -3905,7 +3914,7 @@
         <v>27</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>123</v>
@@ -3916,13 +3925,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>123</v>
@@ -3933,13 +3942,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>29</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>123</v>
@@ -3950,13 +3959,13 @@
         <v>13</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>123</v>
@@ -3967,13 +3976,13 @@
         <v>13</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>123</v>
@@ -3984,13 +3993,13 @@
         <v>13</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>32</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>123</v>
@@ -4001,13 +4010,13 @@
         <v>13</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>123</v>
@@ -4024,7 +4033,7 @@
         <v>35</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -4032,13 +4041,13 @@
         <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>123</v>
@@ -4049,13 +4058,13 @@
         <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>123</v>
@@ -4066,13 +4075,13 @@
         <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>123</v>
@@ -4083,13 +4092,13 @@
         <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>123</v>
@@ -4100,13 +4109,13 @@
         <v>141</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>123</v>
@@ -4117,13 +4126,13 @@
         <v>141</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>123</v>
@@ -4134,13 +4143,13 @@
         <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>123</v>
@@ -4151,13 +4160,13 @@
         <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>123</v>
@@ -4168,13 +4177,13 @@
         <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>123</v>
@@ -4185,13 +4194,13 @@
         <v>159</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>123</v>
@@ -4202,13 +4211,13 @@
         <v>8</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>123</v>
@@ -4219,13 +4228,13 @@
         <v>162</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>123</v>
@@ -4236,13 +4245,13 @@
         <v>8</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>123</v>
@@ -4253,13 +4262,13 @@
         <v>166</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>123</v>
@@ -4270,13 +4279,13 @@
         <v>8</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>123</v>
@@ -4287,13 +4296,13 @@
         <v>170</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>123</v>
@@ -4304,13 +4313,13 @@
         <v>8</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>123</v>
@@ -4321,13 +4330,13 @@
         <v>173</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>123</v>
@@ -4338,13 +4347,13 @@
         <v>8</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>123</v>
@@ -4355,13 +4364,13 @@
         <v>176</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>123</v>
@@ -4372,13 +4381,13 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>123</v>
@@ -4395,7 +4404,7 @@
         <v>52</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -4403,13 +4412,13 @@
         <v>179</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>123</v>
@@ -4420,13 +4429,13 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>54</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>123</v>
@@ -4437,13 +4446,13 @@
         <v>197</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>123</v>
@@ -4454,13 +4463,13 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>123</v>
@@ -4471,13 +4480,13 @@
         <v>199</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>123</v>
@@ -4488,13 +4497,13 @@
         <v>204</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>123</v>
@@ -4505,13 +4514,13 @@
         <v>210</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>123</v>
@@ -4522,13 +4531,13 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>60</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>123</v>
@@ -4539,13 +4548,13 @@
         <v>215</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>123</v>
@@ -4556,13 +4565,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H68" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>123</v>
@@ -4573,13 +4582,13 @@
         <v>141</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C69" s="32" t="s">
         <v>63</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>123</v>
@@ -4590,13 +4599,13 @@
         <v>231</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C70" s="32" t="s">
         <v>64</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>123</v>
@@ -4607,13 +4616,13 @@
         <v>233</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C71" s="32" t="s">
         <v>65</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>123</v>
@@ -4624,13 +4633,13 @@
         <v>237</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C72" s="32" t="s">
         <v>66</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>123</v>
@@ -4641,13 +4650,13 @@
         <v>8</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C73" s="32" t="s">
         <v>67</v>
       </c>
       <c r="H73" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>123</v>
@@ -4658,13 +4667,13 @@
         <v>244</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>123</v>
@@ -4675,13 +4684,13 @@
         <v>8</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>123</v>
@@ -4692,7 +4701,7 @@
         <v>252</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>70</v>
@@ -4701,7 +4710,7 @@
         <v>71</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>123</v>
@@ -4712,13 +4721,13 @@
         <v>256</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>72</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>123</v>
@@ -4735,7 +4744,7 @@
         <v>74</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="1:10" s="8" customFormat="1">
@@ -4749,7 +4758,7 @@
         <v>76</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="1:10" s="32" customFormat="1">
@@ -4757,13 +4766,13 @@
         <v>8</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C80" s="32" t="s">
         <v>77</v>
       </c>
       <c r="H80" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>123</v>
@@ -4774,13 +4783,13 @@
         <v>126</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H81" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>123</v>
@@ -4791,7 +4800,7 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>79</v>
@@ -4803,7 +4812,7 @@
         <v>261</v>
       </c>
       <c r="H82" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>123</v>
@@ -4814,13 +4823,13 @@
         <v>262</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>80</v>
       </c>
       <c r="H83" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>123</v>
@@ -4831,13 +4840,13 @@
         <v>141</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>81</v>
       </c>
       <c r="H84" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>123</v>
@@ -4848,13 +4857,13 @@
         <v>141</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>82</v>
       </c>
       <c r="H85" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>123</v>
@@ -4865,13 +4874,13 @@
         <v>266</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H86" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>123</v>
@@ -4882,13 +4891,13 @@
         <v>271</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H87" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>123</v>
@@ -4899,13 +4908,13 @@
         <v>281</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H88" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>123</v>
@@ -4916,13 +4925,13 @@
         <v>286</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H89" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>123</v>
@@ -4933,13 +4942,13 @@
         <v>8</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>87</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>123</v>
@@ -4950,13 +4959,13 @@
         <v>313</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>88</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>123</v>
@@ -4967,13 +4976,13 @@
         <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>123</v>
@@ -4984,13 +4993,13 @@
         <v>126</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>123</v>
@@ -5001,7 +5010,7 @@
         <v>13</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>91</v>
@@ -5013,7 +5022,7 @@
         <v>261</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>123</v>
@@ -5024,13 +5033,13 @@
         <v>320</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>123</v>
@@ -5041,13 +5050,13 @@
         <v>141</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>93</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>123</v>
@@ -5058,13 +5067,13 @@
         <v>141</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>94</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>123</v>
@@ -5075,13 +5084,13 @@
         <v>266</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>123</v>
@@ -5092,13 +5101,13 @@
         <v>322</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>96</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>123</v>
@@ -5109,13 +5118,13 @@
         <v>8</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -5123,14 +5132,14 @@
         <v>325</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E101" s="8"/>
       <c r="H101" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>123</v>
@@ -5141,13 +5150,13 @@
         <v>326</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>123</v>
@@ -5158,13 +5167,13 @@
         <v>8</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>99</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>123</v>
@@ -5175,13 +5184,13 @@
         <v>329</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>100</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>123</v>
@@ -5198,7 +5207,7 @@
         <v>101</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -5206,7 +5215,7 @@
         <v>141</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>102</v>
@@ -5215,7 +5224,7 @@
         <v>103</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>123</v>
@@ -5226,13 +5235,13 @@
         <v>8</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>123</v>
@@ -5243,7 +5252,7 @@
         <v>141</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>105</v>
@@ -5252,7 +5261,7 @@
         <v>103</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>123</v>
@@ -5263,13 +5272,13 @@
         <v>8</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>123</v>
@@ -5319,7 +5328,7 @@
         <v>109</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -5470,7 +5479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7437,7 +7446,7 @@
         <v>324</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C196" s="25" t="s">
         <v>283</v>
@@ -7448,7 +7457,7 @@
         <v>324</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>284</v>
@@ -7459,7 +7468,7 @@
         <v>324</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C198" s="23" t="s">
         <v>285</v>
@@ -7694,10 +7703,10 @@
         <v>128</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C223" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D223" s="34"/>
       <c r="E223" s="34"/>
@@ -7707,10 +7716,10 @@
         <v>128</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C224" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D224" s="34"/>
       <c r="E224" s="34"/>
@@ -7720,10 +7729,10 @@
         <v>128</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C225" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D225" s="34"/>
       <c r="E225" s="34"/>
@@ -7733,10 +7742,10 @@
         <v>128</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C226" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D226" s="34"/>
       <c r="E226" s="34"/>
@@ -7753,13 +7762,13 @@
         <v>129</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C228" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D228" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E228" s="34"/>
     </row>
@@ -7768,13 +7777,13 @@
         <v>129</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C229" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D229" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E229" s="34"/>
     </row>
@@ -7783,13 +7792,13 @@
         <v>129</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C230" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E230" s="34"/>
     </row>
@@ -7798,13 +7807,13 @@
         <v>129</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E231" s="34"/>
     </row>
@@ -7813,13 +7822,13 @@
         <v>129</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C232" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E232" s="34"/>
     </row>
@@ -7828,13 +7837,13 @@
         <v>129</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C233" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D233" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E233" s="34"/>
     </row>
@@ -7843,13 +7852,13 @@
         <v>129</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C234" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D234" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E234" s="34"/>
     </row>
@@ -7858,13 +7867,13 @@
         <v>129</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C235" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E235" s="34"/>
     </row>
@@ -7873,13 +7882,13 @@
         <v>129</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C236" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E236" s="34"/>
     </row>
@@ -7888,13 +7897,13 @@
         <v>129</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C237" s="34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D237" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E237" s="34"/>
     </row>
@@ -7903,13 +7912,13 @@
         <v>129</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C238" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D238" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E238" s="34"/>
     </row>
@@ -7918,13 +7927,13 @@
         <v>129</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E239" s="34"/>
     </row>
@@ -7933,13 +7942,13 @@
         <v>129</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C240" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D240" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E240" s="34"/>
     </row>
@@ -7948,13 +7957,13 @@
         <v>129</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C241" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D241" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E241" s="34"/>
     </row>
@@ -7963,13 +7972,13 @@
         <v>129</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C242" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D242" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E242" s="34"/>
     </row>
@@ -7978,13 +7987,13 @@
         <v>129</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C243" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E243" s="34"/>
     </row>
@@ -7993,13 +8002,13 @@
         <v>129</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C244" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E244" s="34"/>
     </row>
@@ -8008,13 +8017,13 @@
         <v>129</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C245" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E245" s="34"/>
     </row>
@@ -8023,13 +8032,13 @@
         <v>129</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C246" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E246" s="34"/>
     </row>
@@ -8038,13 +8047,13 @@
         <v>129</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C247" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D247" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E247" s="34"/>
     </row>
@@ -8053,13 +8062,13 @@
         <v>129</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C248" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D248" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E248" s="34"/>
     </row>
@@ -8068,13 +8077,13 @@
         <v>129</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C249" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D249" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E249" s="34"/>
     </row>
@@ -8083,13 +8092,13 @@
         <v>129</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C250" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D250" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E250" s="34"/>
     </row>
@@ -8098,13 +8107,13 @@
         <v>129</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C251" s="34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D251" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E251" s="34"/>
     </row>
@@ -8113,13 +8122,13 @@
         <v>129</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C252" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D252" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E252" s="34"/>
     </row>
@@ -8128,13 +8137,13 @@
         <v>129</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C253" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D253" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E253" s="34"/>
     </row>
@@ -8143,13 +8152,13 @@
         <v>129</v>
       </c>
       <c r="B254" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C254" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D254" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E254" s="34"/>
     </row>
@@ -8158,13 +8167,13 @@
         <v>129</v>
       </c>
       <c r="B255" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C255" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E255" s="34"/>
     </row>
@@ -8173,13 +8182,13 @@
         <v>129</v>
       </c>
       <c r="B256" s="34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C256" s="34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D256" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E256" s="34"/>
     </row>
@@ -8188,13 +8197,13 @@
         <v>129</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C257" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D257" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E257" s="34"/>
     </row>
@@ -8203,13 +8212,13 @@
         <v>129</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C258" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D258" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E258" s="34"/>
     </row>
@@ -8218,13 +8227,13 @@
         <v>129</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C259" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D259" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E259" s="34"/>
     </row>
@@ -8233,13 +8242,13 @@
         <v>129</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C260" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D260" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E260" s="34"/>
     </row>
@@ -8248,13 +8257,13 @@
         <v>129</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C261" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D261" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E261" s="34"/>
     </row>
@@ -8263,13 +8272,13 @@
         <v>129</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C262" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D262" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E262" s="34"/>
     </row>
@@ -8278,13 +8287,13 @@
         <v>129</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C263" s="34" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D263" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E263" s="34"/>
     </row>
@@ -8293,13 +8302,13 @@
         <v>129</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D264" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E264" s="34"/>
     </row>
@@ -8308,13 +8317,13 @@
         <v>129</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C265" s="34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D265" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E265" s="34"/>
     </row>
@@ -8323,13 +8332,13 @@
         <v>129</v>
       </c>
       <c r="B266" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C266" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D266" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E266" s="34"/>
     </row>
@@ -8338,13 +8347,13 @@
         <v>129</v>
       </c>
       <c r="B267" s="34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C267" s="34" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D267" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E267" s="34"/>
     </row>
@@ -8353,13 +8362,13 @@
         <v>129</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C268" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D268" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E268" s="34"/>
     </row>
@@ -8368,13 +8377,13 @@
         <v>129</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C269" s="34" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D269" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E269" s="34"/>
     </row>
@@ -8383,13 +8392,13 @@
         <v>129</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C270" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D270" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E270" s="34"/>
     </row>
@@ -8398,13 +8407,13 @@
         <v>129</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C271" s="34" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D271" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E271" s="34"/>
     </row>
@@ -8413,13 +8422,13 @@
         <v>129</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C272" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D272" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E272" s="34"/>
     </row>
@@ -8428,13 +8437,13 @@
         <v>129</v>
       </c>
       <c r="B273" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C273" s="34" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D273" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E273" s="34"/>
     </row>
@@ -8443,13 +8452,13 @@
         <v>129</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C274" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D274" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E274" s="34"/>
     </row>
@@ -8458,13 +8467,13 @@
         <v>129</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C275" s="34" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D275" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E275" s="34"/>
     </row>
@@ -8473,13 +8482,13 @@
         <v>129</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C276" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D276" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E276" s="34"/>
     </row>
@@ -8488,13 +8497,13 @@
         <v>129</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C277" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D277" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E277" s="34"/>
     </row>
@@ -8503,13 +8512,13 @@
         <v>129</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C278" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E278" s="34"/>
     </row>
@@ -8518,13 +8527,13 @@
         <v>129</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C279" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E279" s="34"/>
     </row>
@@ -8533,13 +8542,13 @@
         <v>129</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C280" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E280" s="34"/>
     </row>
@@ -8548,13 +8557,13 @@
         <v>129</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C281" s="34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E281" s="34"/>
     </row>
@@ -8563,13 +8572,13 @@
         <v>129</v>
       </c>
       <c r="B282" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C282" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E282" s="34"/>
     </row>
@@ -8578,13 +8587,13 @@
         <v>129</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E283" s="34"/>
     </row>
@@ -8593,13 +8602,13 @@
         <v>129</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C284" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E284" s="34"/>
     </row>
@@ -8608,13 +8617,13 @@
         <v>129</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C285" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E285" s="34"/>
     </row>
@@ -8623,13 +8632,13 @@
         <v>129</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C286" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E286" s="34"/>
     </row>
@@ -8638,13 +8647,13 @@
         <v>129</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C287" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D287" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E287" s="34"/>
     </row>
@@ -8653,13 +8662,13 @@
         <v>129</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C288" s="34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D288" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E288" s="34"/>
     </row>
@@ -8668,13 +8677,13 @@
         <v>129</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C289" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D289" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E289" s="34"/>
     </row>
@@ -8683,13 +8692,13 @@
         <v>129</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C290" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D290" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E290" s="34"/>
     </row>
@@ -8698,13 +8707,13 @@
         <v>129</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C291" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D291" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E291" s="34"/>
     </row>
@@ -8713,13 +8722,13 @@
         <v>129</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C292" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D292" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E292" s="34"/>
     </row>
@@ -8728,13 +8737,13 @@
         <v>129</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C293" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D293" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E293" s="34"/>
     </row>
@@ -8743,13 +8752,13 @@
         <v>129</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C294" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D294" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E294" s="34"/>
     </row>
@@ -8758,13 +8767,13 @@
         <v>129</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C295" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D295" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E295" s="34"/>
     </row>
@@ -8773,13 +8782,13 @@
         <v>129</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C296" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D296" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E296" s="34"/>
     </row>
@@ -8788,13 +8797,13 @@
         <v>129</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C297" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D297" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E297" s="34"/>
     </row>
@@ -8803,13 +8812,13 @@
         <v>129</v>
       </c>
       <c r="B298" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C298" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D298" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E298" s="34"/>
     </row>
@@ -8818,13 +8827,13 @@
         <v>129</v>
       </c>
       <c r="B299" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C299" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D299" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E299" s="34"/>
     </row>
@@ -8833,13 +8842,13 @@
         <v>129</v>
       </c>
       <c r="B300" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C300" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D300" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E300" s="34"/>
     </row>
@@ -8848,13 +8857,13 @@
         <v>129</v>
       </c>
       <c r="B301" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C301" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D301" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E301" s="34"/>
     </row>
@@ -8863,13 +8872,13 @@
         <v>129</v>
       </c>
       <c r="B302" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C302" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E302" s="34"/>
     </row>
@@ -8878,13 +8887,13 @@
         <v>129</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C303" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D303" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E303" s="34"/>
     </row>
@@ -8893,13 +8902,13 @@
         <v>129</v>
       </c>
       <c r="B304" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C304" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D304" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E304" s="34"/>
     </row>
@@ -8908,13 +8917,13 @@
         <v>129</v>
       </c>
       <c r="B305" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C305" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E305" s="34"/>
     </row>
@@ -8923,13 +8932,13 @@
         <v>129</v>
       </c>
       <c r="B306" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C306" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D306" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E306" s="34"/>
     </row>
@@ -8938,13 +8947,13 @@
         <v>129</v>
       </c>
       <c r="B307" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C307" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D307" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E307" s="34"/>
     </row>
@@ -8953,13 +8962,13 @@
         <v>129</v>
       </c>
       <c r="B308" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C308" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E308" s="34"/>
     </row>
@@ -8968,13 +8977,13 @@
         <v>129</v>
       </c>
       <c r="B309" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C309" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E309" s="34"/>
     </row>
@@ -8983,13 +8992,13 @@
         <v>129</v>
       </c>
       <c r="B310" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C310" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E310" s="34"/>
     </row>
@@ -8998,13 +9007,13 @@
         <v>129</v>
       </c>
       <c r="B311" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C311" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D311" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E311" s="34"/>
     </row>
@@ -9013,13 +9022,13 @@
         <v>129</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C312" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E312" s="34"/>
     </row>
@@ -9028,13 +9037,13 @@
         <v>129</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C313" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D313" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E313" s="34"/>
     </row>
@@ -9043,13 +9052,13 @@
         <v>129</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C314" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E314" s="34"/>
     </row>
@@ -9058,13 +9067,13 @@
         <v>129</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C315" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D315" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E315" s="34"/>
     </row>
@@ -9073,13 +9082,13 @@
         <v>129</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C316" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E316" s="34"/>
     </row>
@@ -9088,13 +9097,13 @@
         <v>129</v>
       </c>
       <c r="B317" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C317" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D317" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E317" s="34"/>
     </row>
@@ -9103,13 +9112,13 @@
         <v>129</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C318" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E318" s="34"/>
     </row>
@@ -9118,13 +9127,13 @@
         <v>129</v>
       </c>
       <c r="B319" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C319" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E319" s="34"/>
     </row>
@@ -9133,13 +9142,13 @@
         <v>129</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C320" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D320" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E320" s="34"/>
     </row>
@@ -9148,13 +9157,13 @@
         <v>129</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C321" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D321" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E321" s="34"/>
     </row>
@@ -9163,13 +9172,13 @@
         <v>129</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C322" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D322" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E322" s="34"/>
     </row>
@@ -9178,13 +9187,13 @@
         <v>129</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C323" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D323" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E323" s="34"/>
     </row>
@@ -9193,13 +9202,13 @@
         <v>129</v>
       </c>
       <c r="B324" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C324" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D324" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E324" s="34"/>
     </row>
@@ -9208,13 +9217,13 @@
         <v>129</v>
       </c>
       <c r="B325" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C325" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D325" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E325" s="34"/>
     </row>
@@ -9223,13 +9232,13 @@
         <v>129</v>
       </c>
       <c r="B326" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C326" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D326" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E326" s="34"/>
     </row>
@@ -9238,13 +9247,13 @@
         <v>129</v>
       </c>
       <c r="B327" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C327" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D327" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E327" s="34"/>
     </row>
@@ -9253,13 +9262,13 @@
         <v>129</v>
       </c>
       <c r="B328" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C328" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D328" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E328" s="34"/>
     </row>
@@ -9268,13 +9277,13 @@
         <v>129</v>
       </c>
       <c r="B329" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C329" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D329" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E329" s="34"/>
     </row>
@@ -9283,13 +9292,13 @@
         <v>129</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D330" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E330" s="34"/>
     </row>
@@ -9298,13 +9307,13 @@
         <v>129</v>
       </c>
       <c r="B331" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C331" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D331" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E331" s="34"/>
     </row>
@@ -9313,13 +9322,13 @@
         <v>129</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C332" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D332" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E332" s="34"/>
     </row>
@@ -9328,13 +9337,13 @@
         <v>129</v>
       </c>
       <c r="B333" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C333" s="34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D333" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E333" s="34"/>
     </row>
@@ -9343,13 +9352,13 @@
         <v>129</v>
       </c>
       <c r="B334" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C334" s="34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D334" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E334" s="34"/>
     </row>
@@ -9358,13 +9367,13 @@
         <v>129</v>
       </c>
       <c r="B335" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C335" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D335" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E335" s="34"/>
     </row>
@@ -9373,13 +9382,13 @@
         <v>129</v>
       </c>
       <c r="B336" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C336" s="34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D336" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E336" s="34"/>
     </row>
@@ -9388,13 +9397,13 @@
         <v>129</v>
       </c>
       <c r="B337" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C337" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D337" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E337" s="34"/>
     </row>
@@ -9403,13 +9412,13 @@
         <v>129</v>
       </c>
       <c r="B338" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C338" s="34" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D338" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E338" s="34"/>
     </row>
@@ -9418,13 +9427,13 @@
         <v>129</v>
       </c>
       <c r="B339" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C339" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D339" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E339" s="34"/>
     </row>
@@ -9433,13 +9442,13 @@
         <v>129</v>
       </c>
       <c r="B340" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C340" s="34" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D340" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E340" s="34"/>
     </row>
@@ -9448,13 +9457,13 @@
         <v>129</v>
       </c>
       <c r="B341" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C341" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D341" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E341" s="34"/>
     </row>
@@ -9463,13 +9472,13 @@
         <v>129</v>
       </c>
       <c r="B342" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C342" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D342" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E342" s="34"/>
     </row>
@@ -9478,13 +9487,13 @@
         <v>129</v>
       </c>
       <c r="B343" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C343" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D343" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E343" s="34"/>
     </row>
@@ -9493,13 +9502,13 @@
         <v>129</v>
       </c>
       <c r="B344" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C344" s="34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D344" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E344" s="34"/>
     </row>
@@ -9508,13 +9517,13 @@
         <v>129</v>
       </c>
       <c r="B345" s="34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C345" s="34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D345" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E345" s="34"/>
     </row>
@@ -9523,13 +9532,13 @@
         <v>129</v>
       </c>
       <c r="B346" s="34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C346" s="34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D346" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E346" s="34"/>
     </row>
@@ -9538,13 +9547,13 @@
         <v>129</v>
       </c>
       <c r="B347" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C347" s="34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D347" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E347" s="34"/>
     </row>
@@ -9553,13 +9562,13 @@
         <v>129</v>
       </c>
       <c r="B348" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C348" s="34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D348" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E348" s="34"/>
     </row>
@@ -9568,13 +9577,13 @@
         <v>129</v>
       </c>
       <c r="B349" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C349" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D349" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E349" s="34"/>
     </row>
@@ -9583,13 +9592,13 @@
         <v>129</v>
       </c>
       <c r="B350" s="34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C350" s="34" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D350" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E350" s="34"/>
     </row>
@@ -9598,13 +9607,13 @@
         <v>129</v>
       </c>
       <c r="B351" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C351" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D351" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E351" s="34"/>
     </row>
@@ -9613,13 +9622,13 @@
         <v>129</v>
       </c>
       <c r="B352" s="34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C352" s="34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D352" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E352" s="34"/>
     </row>
@@ -9628,13 +9637,13 @@
         <v>129</v>
       </c>
       <c r="B353" s="34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C353" s="34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D353" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E353" s="34"/>
     </row>
@@ -9643,13 +9652,13 @@
         <v>129</v>
       </c>
       <c r="B354" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C354" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D354" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E354" s="34"/>
     </row>
@@ -9658,13 +9667,13 @@
         <v>129</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C355" s="34" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D355" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E355" s="34"/>
     </row>
@@ -9673,13 +9682,13 @@
         <v>129</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C356" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D356" s="34" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E356" s="34"/>
     </row>
@@ -9688,13 +9697,13 @@
         <v>129</v>
       </c>
       <c r="B357" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C357" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D357" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E357" s="34"/>
     </row>
@@ -9703,13 +9712,13 @@
         <v>129</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C358" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D358" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E358" s="34"/>
     </row>
@@ -9718,13 +9727,13 @@
         <v>129</v>
       </c>
       <c r="B359" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C359" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D359" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E359" s="34"/>
     </row>
@@ -9733,13 +9742,13 @@
         <v>129</v>
       </c>
       <c r="B360" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C360" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D360" s="34" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E360" s="34"/>
     </row>
@@ -9748,13 +9757,13 @@
         <v>129</v>
       </c>
       <c r="B361" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C361" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D361" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E361" s="34"/>
     </row>
@@ -9763,13 +9772,13 @@
         <v>129</v>
       </c>
       <c r="B362" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C362" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D362" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E362" s="34"/>
     </row>
@@ -9778,13 +9787,13 @@
         <v>129</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C363" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D363" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E363" s="34"/>
     </row>
@@ -9793,13 +9802,13 @@
         <v>129</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C364" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D364" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E364" s="34"/>
     </row>
@@ -9808,13 +9817,13 @@
         <v>129</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C365" s="34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D365" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E365" s="34"/>
     </row>
@@ -9823,13 +9832,13 @@
         <v>129</v>
       </c>
       <c r="B366" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C366" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D366" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E366" s="34"/>
     </row>
@@ -9838,13 +9847,13 @@
         <v>129</v>
       </c>
       <c r="B367" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C367" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D367" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E367" s="34"/>
     </row>
@@ -9860,14 +9869,14 @@
         <v>130</v>
       </c>
       <c r="B369" s="34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C369" s="34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D369" s="34"/>
       <c r="E369" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9875,14 +9884,14 @@
         <v>130</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C370" s="34" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D370" s="34"/>
       <c r="E370" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9890,14 +9899,14 @@
         <v>130</v>
       </c>
       <c r="B371" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C371" s="34" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D371" s="34"/>
       <c r="E371" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9905,14 +9914,14 @@
         <v>130</v>
       </c>
       <c r="B372" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C372" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D372" s="34"/>
       <c r="E372" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9920,14 +9929,14 @@
         <v>130</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C373" s="34" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D373" s="34"/>
       <c r="E373" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9935,14 +9944,14 @@
         <v>130</v>
       </c>
       <c r="B374" s="34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C374" s="34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D374" s="34"/>
       <c r="E374" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9950,14 +9959,14 @@
         <v>130</v>
       </c>
       <c r="B375" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C375" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D375" s="34"/>
       <c r="E375" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9965,14 +9974,14 @@
         <v>130</v>
       </c>
       <c r="B376" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C376" s="34" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D376" s="34"/>
       <c r="E376" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9980,14 +9989,14 @@
         <v>130</v>
       </c>
       <c r="B377" s="34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C377" s="34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D377" s="34"/>
       <c r="E377" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9995,14 +10004,14 @@
         <v>130</v>
       </c>
       <c r="B378" s="34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C378" s="34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D378" s="34"/>
       <c r="E378" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -10010,14 +10019,14 @@
         <v>130</v>
       </c>
       <c r="B379" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C379" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D379" s="34"/>
       <c r="E379" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -10025,14 +10034,14 @@
         <v>130</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C380" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D380" s="34"/>
       <c r="E380" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -10040,14 +10049,14 @@
         <v>130</v>
       </c>
       <c r="B381" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C381" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D381" s="34"/>
       <c r="E381" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -10055,14 +10064,14 @@
         <v>130</v>
       </c>
       <c r="B382" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C382" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D382" s="34"/>
       <c r="E382" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -10070,14 +10079,14 @@
         <v>130</v>
       </c>
       <c r="B383" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C383" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D383" s="34"/>
       <c r="E383" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -10085,14 +10094,14 @@
         <v>130</v>
       </c>
       <c r="B384" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C384" s="34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D384" s="34"/>
       <c r="E384" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -10100,14 +10109,14 @@
         <v>130</v>
       </c>
       <c r="B385" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C385" s="34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D385" s="34"/>
       <c r="E385" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -10115,14 +10124,14 @@
         <v>130</v>
       </c>
       <c r="B386" s="34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C386" s="34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D386" s="34"/>
       <c r="E386" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -10130,14 +10139,14 @@
         <v>130</v>
       </c>
       <c r="B387" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C387" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D387" s="34"/>
       <c r="E387" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10145,14 +10154,14 @@
         <v>130</v>
       </c>
       <c r="B388" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C388" s="34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D388" s="34"/>
       <c r="E388" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10160,14 +10169,14 @@
         <v>130</v>
       </c>
       <c r="B389" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C389" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D389" s="34"/>
       <c r="E389" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10175,14 +10184,14 @@
         <v>130</v>
       </c>
       <c r="B390" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C390" s="34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D390" s="34"/>
       <c r="E390" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10190,14 +10199,14 @@
         <v>130</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C391" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D391" s="34"/>
       <c r="E391" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10205,14 +10214,14 @@
         <v>130</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C392" s="34" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D392" s="34"/>
       <c r="E392" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -10220,14 +10229,14 @@
         <v>130</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C393" s="34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D393" s="34"/>
       <c r="E393" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -10235,14 +10244,14 @@
         <v>130</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C394" s="34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D394" s="34"/>
       <c r="E394" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -10250,14 +10259,14 @@
         <v>130</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C395" s="34" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D395" s="34"/>
       <c r="E395" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -10265,14 +10274,14 @@
         <v>130</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C396" s="34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D396" s="34"/>
       <c r="E396" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10280,14 +10289,14 @@
         <v>130</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C397" s="34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D397" s="34"/>
       <c r="E397" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10295,14 +10304,14 @@
         <v>130</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C398" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D398" s="34"/>
       <c r="E398" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10310,14 +10319,14 @@
         <v>130</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C399" s="34" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D399" s="34"/>
       <c r="E399" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10325,14 +10334,14 @@
         <v>130</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C400" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D400" s="34"/>
       <c r="E400" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10340,14 +10349,14 @@
         <v>130</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C401" s="34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D401" s="34"/>
       <c r="E401" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10355,14 +10364,14 @@
         <v>130</v>
       </c>
       <c r="B402" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C402" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D402" s="34"/>
       <c r="E402" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10370,14 +10379,14 @@
         <v>130</v>
       </c>
       <c r="B403" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C403" s="34" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D403" s="34"/>
       <c r="E403" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10385,14 +10394,14 @@
         <v>130</v>
       </c>
       <c r="B404" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C404" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D404" s="34"/>
       <c r="E404" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10400,14 +10409,14 @@
         <v>130</v>
       </c>
       <c r="B405" s="34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C405" s="34" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D405" s="34"/>
       <c r="E405" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10415,14 +10424,14 @@
         <v>130</v>
       </c>
       <c r="B406" s="34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C406" s="34" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D406" s="34"/>
       <c r="E406" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10430,14 +10439,14 @@
         <v>130</v>
       </c>
       <c r="B407" s="34" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C407" s="34" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D407" s="34"/>
       <c r="E407" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10445,14 +10454,14 @@
         <v>130</v>
       </c>
       <c r="B408" s="34" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C408" s="34" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D408" s="34"/>
       <c r="E408" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10460,14 +10469,14 @@
         <v>130</v>
       </c>
       <c r="B409" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C409" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D409" s="34"/>
       <c r="E409" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10475,14 +10484,14 @@
         <v>130</v>
       </c>
       <c r="B410" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C410" s="34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D410" s="34"/>
       <c r="E410" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10490,14 +10499,14 @@
         <v>130</v>
       </c>
       <c r="B411" s="34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C411" s="34" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D411" s="34"/>
       <c r="E411" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10505,14 +10514,14 @@
         <v>130</v>
       </c>
       <c r="B412" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C412" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D412" s="34"/>
       <c r="E412" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10520,14 +10529,14 @@
         <v>130</v>
       </c>
       <c r="B413" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C413" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D413" s="34"/>
       <c r="E413" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10535,14 +10544,14 @@
         <v>130</v>
       </c>
       <c r="B414" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C414" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D414" s="34"/>
       <c r="E414" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10550,14 +10559,14 @@
         <v>130</v>
       </c>
       <c r="B415" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C415" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D415" s="34"/>
       <c r="E415" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10565,14 +10574,14 @@
         <v>130</v>
       </c>
       <c r="B416" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C416" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D416" s="34"/>
       <c r="E416" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10580,14 +10589,14 @@
         <v>130</v>
       </c>
       <c r="B417" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C417" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D417" s="34"/>
       <c r="E417" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10595,14 +10604,14 @@
         <v>130</v>
       </c>
       <c r="B418" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C418" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D418" s="34"/>
       <c r="E418" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10610,14 +10619,14 @@
         <v>130</v>
       </c>
       <c r="B419" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C419" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D419" s="34"/>
       <c r="E419" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10625,14 +10634,14 @@
         <v>130</v>
       </c>
       <c r="B420" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C420" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D420" s="34"/>
       <c r="E420" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10640,14 +10649,14 @@
         <v>130</v>
       </c>
       <c r="B421" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C421" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D421" s="34"/>
       <c r="E421" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10655,14 +10664,14 @@
         <v>130</v>
       </c>
       <c r="B422" s="34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C422" s="34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D422" s="34"/>
       <c r="E422" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10670,14 +10679,14 @@
         <v>130</v>
       </c>
       <c r="B423" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C423" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D423" s="34"/>
       <c r="E423" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10685,14 +10694,14 @@
         <v>130</v>
       </c>
       <c r="B424" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C424" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D424" s="34"/>
       <c r="E424" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10700,14 +10709,14 @@
         <v>130</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C425" s="34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D425" s="34"/>
       <c r="E425" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10715,14 +10724,14 @@
         <v>130</v>
       </c>
       <c r="B426" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C426" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D426" s="34"/>
       <c r="E426" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10730,14 +10739,14 @@
         <v>130</v>
       </c>
       <c r="B427" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C427" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D427" s="34"/>
       <c r="E427" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10745,14 +10754,14 @@
         <v>130</v>
       </c>
       <c r="B428" s="34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C428" s="34" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D428" s="34"/>
       <c r="E428" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10760,14 +10769,14 @@
         <v>130</v>
       </c>
       <c r="B429" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C429" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D429" s="34"/>
       <c r="E429" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10775,14 +10784,14 @@
         <v>130</v>
       </c>
       <c r="B430" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C430" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D430" s="34"/>
       <c r="E430" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10790,14 +10799,14 @@
         <v>130</v>
       </c>
       <c r="B431" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C431" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D431" s="34"/>
       <c r="E431" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10805,14 +10814,14 @@
         <v>130</v>
       </c>
       <c r="B432" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C432" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D432" s="34"/>
       <c r="E432" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10820,14 +10829,14 @@
         <v>130</v>
       </c>
       <c r="B433" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C433" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D433" s="34"/>
       <c r="E433" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10835,14 +10844,14 @@
         <v>130</v>
       </c>
       <c r="B434" s="34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C434" s="34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10850,14 +10859,14 @@
         <v>130</v>
       </c>
       <c r="B435" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C435" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D435" s="34"/>
       <c r="E435" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10865,14 +10874,14 @@
         <v>130</v>
       </c>
       <c r="B436" s="34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C436" s="34" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D436" s="34"/>
       <c r="E436" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10880,14 +10889,14 @@
         <v>130</v>
       </c>
       <c r="B437" s="34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C437" s="34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10895,14 +10904,14 @@
         <v>130</v>
       </c>
       <c r="B438" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C438" s="34" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D438" s="34"/>
       <c r="E438" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10910,14 +10919,14 @@
         <v>130</v>
       </c>
       <c r="B439" s="34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C439" s="34" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D439" s="34"/>
       <c r="E439" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10925,14 +10934,14 @@
         <v>130</v>
       </c>
       <c r="B440" s="34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C440" s="34" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D440" s="34"/>
       <c r="E440" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10940,14 +10949,14 @@
         <v>130</v>
       </c>
       <c r="B441" s="34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C441" s="34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D441" s="34"/>
       <c r="E441" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10955,14 +10964,14 @@
         <v>130</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D442" s="34"/>
       <c r="E442" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10970,14 +10979,14 @@
         <v>130</v>
       </c>
       <c r="B443" s="34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C443" s="34" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D443" s="34"/>
       <c r="E443" s="34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10985,14 +10994,14 @@
         <v>130</v>
       </c>
       <c r="B444" s="34" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C444" s="34" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D444" s="34"/>
       <c r="E444" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -11000,14 +11009,14 @@
         <v>130</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C445" s="34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D445" s="34"/>
       <c r="E445" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -11015,14 +11024,14 @@
         <v>130</v>
       </c>
       <c r="B446" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C446" s="34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D446" s="34"/>
       <c r="E446" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -11030,14 +11039,14 @@
         <v>130</v>
       </c>
       <c r="B447" s="34" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C447" s="34" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D447" s="34"/>
       <c r="E447" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -11045,14 +11054,14 @@
         <v>130</v>
       </c>
       <c r="B448" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C448" s="34" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D448" s="34"/>
       <c r="E448" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -11060,14 +11069,14 @@
         <v>130</v>
       </c>
       <c r="B449" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C449" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D449" s="34"/>
       <c r="E449" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -11075,14 +11084,14 @@
         <v>130</v>
       </c>
       <c r="B450" s="34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D450" s="34"/>
       <c r="E450" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -11090,14 +11099,14 @@
         <v>130</v>
       </c>
       <c r="B451" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C451" s="34" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D451" s="34"/>
       <c r="E451" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -11105,14 +11114,14 @@
         <v>130</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C452" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D452" s="34"/>
       <c r="E452" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -11120,14 +11129,14 @@
         <v>130</v>
       </c>
       <c r="B453" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C453" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D453" s="34"/>
       <c r="E453" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -11135,14 +11144,14 @@
         <v>130</v>
       </c>
       <c r="B454" s="34" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C454" s="34" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D454" s="34"/>
       <c r="E454" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -11150,14 +11159,14 @@
         <v>130</v>
       </c>
       <c r="B455" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C455" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D455" s="34"/>
       <c r="E455" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -11165,14 +11174,14 @@
         <v>130</v>
       </c>
       <c r="B456" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C456" s="34" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D456" s="34"/>
       <c r="E456" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -11180,14 +11189,14 @@
         <v>130</v>
       </c>
       <c r="B457" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C457" s="34" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D457" s="34"/>
       <c r="E457" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -11195,14 +11204,14 @@
         <v>130</v>
       </c>
       <c r="B458" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C458" s="34" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D458" s="34"/>
       <c r="E458" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -11210,14 +11219,14 @@
         <v>130</v>
       </c>
       <c r="B459" s="34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C459" s="34" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D459" s="34"/>
       <c r="E459" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -11225,14 +11234,14 @@
         <v>130</v>
       </c>
       <c r="B460" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C460" s="34" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D460" s="34"/>
       <c r="E460" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -11240,14 +11249,14 @@
         <v>130</v>
       </c>
       <c r="B461" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C461" s="34" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D461" s="34"/>
       <c r="E461" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -11255,14 +11264,14 @@
         <v>130</v>
       </c>
       <c r="B462" s="34" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C462" s="34" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D462" s="34"/>
       <c r="E462" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -11270,14 +11279,14 @@
         <v>130</v>
       </c>
       <c r="B463" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C463" s="34" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D463" s="34"/>
       <c r="E463" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11285,14 +11294,14 @@
         <v>130</v>
       </c>
       <c r="B464" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C464" s="34" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D464" s="34"/>
       <c r="E464" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11300,14 +11309,14 @@
         <v>130</v>
       </c>
       <c r="B465" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C465" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D465" s="34"/>
       <c r="E465" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11315,14 +11324,14 @@
         <v>130</v>
       </c>
       <c r="B466" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C466" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D466" s="34"/>
       <c r="E466" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11330,14 +11339,14 @@
         <v>130</v>
       </c>
       <c r="B467" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C467" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D467" s="34"/>
       <c r="E467" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11345,14 +11354,14 @@
         <v>130</v>
       </c>
       <c r="B468" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C468" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D468" s="34"/>
       <c r="E468" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11360,14 +11369,14 @@
         <v>130</v>
       </c>
       <c r="B469" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C469" s="34" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D469" s="34"/>
       <c r="E469" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11375,14 +11384,14 @@
         <v>130</v>
       </c>
       <c r="B470" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C470" s="34" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D470" s="34"/>
       <c r="E470" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11390,14 +11399,14 @@
         <v>130</v>
       </c>
       <c r="B471" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C471" s="34" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D471" s="34"/>
       <c r="E471" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11405,14 +11414,14 @@
         <v>130</v>
       </c>
       <c r="B472" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C472" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D472" s="34"/>
       <c r="E472" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11420,14 +11429,14 @@
         <v>130</v>
       </c>
       <c r="B473" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C473" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D473" s="34"/>
       <c r="E473" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11435,14 +11444,14 @@
         <v>130</v>
       </c>
       <c r="B474" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C474" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D474" s="34"/>
       <c r="E474" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11450,14 +11459,14 @@
         <v>130</v>
       </c>
       <c r="B475" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C475" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D475" s="34"/>
       <c r="E475" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11465,14 +11474,14 @@
         <v>130</v>
       </c>
       <c r="B476" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C476" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D476" s="34"/>
       <c r="E476" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11480,14 +11489,14 @@
         <v>130</v>
       </c>
       <c r="B477" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C477" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D477" s="34"/>
       <c r="E477" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11495,14 +11504,14 @@
         <v>130</v>
       </c>
       <c r="B478" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C478" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D478" s="34"/>
       <c r="E478" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11510,14 +11519,14 @@
         <v>130</v>
       </c>
       <c r="B479" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C479" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D479" s="34"/>
       <c r="E479" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11525,14 +11534,14 @@
         <v>130</v>
       </c>
       <c r="B480" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C480" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D480" s="34"/>
       <c r="E480" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11540,14 +11549,14 @@
         <v>130</v>
       </c>
       <c r="B481" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C481" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D481" s="34"/>
       <c r="E481" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11555,14 +11564,14 @@
         <v>130</v>
       </c>
       <c r="B482" s="34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C482" s="34" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D482" s="34"/>
       <c r="E482" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11570,14 +11579,14 @@
         <v>130</v>
       </c>
       <c r="B483" s="34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C483" s="34" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D483" s="34"/>
       <c r="E483" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11585,14 +11594,14 @@
         <v>130</v>
       </c>
       <c r="B484" s="34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C484" s="34" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D484" s="34"/>
       <c r="E484" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11600,14 +11609,14 @@
         <v>130</v>
       </c>
       <c r="B485" s="34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C485" s="34" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D485" s="34"/>
       <c r="E485" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11615,14 +11624,14 @@
         <v>130</v>
       </c>
       <c r="B486" s="34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C486" s="34" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D486" s="34"/>
       <c r="E486" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11630,14 +11639,14 @@
         <v>130</v>
       </c>
       <c r="B487" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C487" s="34" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D487" s="34"/>
       <c r="E487" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11645,14 +11654,14 @@
         <v>130</v>
       </c>
       <c r="B488" s="34" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C488" s="34" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D488" s="34"/>
       <c r="E488" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11660,14 +11669,14 @@
         <v>130</v>
       </c>
       <c r="B489" s="34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C489" s="34" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D489" s="34"/>
       <c r="E489" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11675,14 +11684,14 @@
         <v>130</v>
       </c>
       <c r="B490" s="34" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C490" s="34" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D490" s="34"/>
       <c r="E490" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11690,14 +11699,14 @@
         <v>130</v>
       </c>
       <c r="B491" s="34" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C491" s="34" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D491" s="34"/>
       <c r="E491" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11705,14 +11714,14 @@
         <v>130</v>
       </c>
       <c r="B492" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C492" s="34" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D492" s="34"/>
       <c r="E492" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11720,14 +11729,14 @@
         <v>130</v>
       </c>
       <c r="B493" s="34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C493" s="34" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D493" s="34"/>
       <c r="E493" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11735,14 +11744,14 @@
         <v>130</v>
       </c>
       <c r="B494" s="34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C494" s="34" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D494" s="34"/>
       <c r="E494" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11750,14 +11759,14 @@
         <v>130</v>
       </c>
       <c r="B495" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C495" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D495" s="34"/>
       <c r="E495" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11765,14 +11774,14 @@
         <v>130</v>
       </c>
       <c r="B496" s="34" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C496" s="34" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D496" s="34"/>
       <c r="E496" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11780,14 +11789,14 @@
         <v>130</v>
       </c>
       <c r="B497" s="34" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C497" s="34" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D497" s="34"/>
       <c r="E497" s="34" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11795,14 +11804,14 @@
         <v>130</v>
       </c>
       <c r="B498" s="34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C498" s="34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D498" s="34"/>
       <c r="E498" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11810,14 +11819,14 @@
         <v>130</v>
       </c>
       <c r="B499" s="34" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C499" s="34" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D499" s="34"/>
       <c r="E499" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11825,14 +11834,14 @@
         <v>130</v>
       </c>
       <c r="B500" s="34" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C500" s="34" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D500" s="34"/>
       <c r="E500" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11840,14 +11849,14 @@
         <v>130</v>
       </c>
       <c r="B501" s="34" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C501" s="34" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D501" s="34"/>
       <c r="E501" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11855,14 +11864,14 @@
         <v>130</v>
       </c>
       <c r="B502" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C502" s="34" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D502" s="34"/>
       <c r="E502" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11870,14 +11879,14 @@
         <v>130</v>
       </c>
       <c r="B503" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C503" s="34" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D503" s="34"/>
       <c r="E503" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11885,14 +11894,14 @@
         <v>130</v>
       </c>
       <c r="B504" s="34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C504" s="34" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D504" s="34"/>
       <c r="E504" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11900,14 +11909,14 @@
         <v>130</v>
       </c>
       <c r="B505" s="34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C505" s="34" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D505" s="34"/>
       <c r="E505" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11915,14 +11924,14 @@
         <v>130</v>
       </c>
       <c r="B506" s="34" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C506" s="34" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D506" s="34"/>
       <c r="E506" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11930,14 +11939,14 @@
         <v>130</v>
       </c>
       <c r="B507" s="34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C507" s="34" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D507" s="34"/>
       <c r="E507" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11945,14 +11954,14 @@
         <v>130</v>
       </c>
       <c r="B508" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C508" s="34" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D508" s="34"/>
       <c r="E508" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11960,14 +11969,14 @@
         <v>130</v>
       </c>
       <c r="B509" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C509" s="34" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D509" s="34"/>
       <c r="E509" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11975,14 +11984,14 @@
         <v>130</v>
       </c>
       <c r="B510" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C510" s="34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D510" s="34"/>
       <c r="E510" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11990,14 +11999,14 @@
         <v>130</v>
       </c>
       <c r="B511" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C511" s="34" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D511" s="34"/>
       <c r="E511" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -12005,14 +12014,14 @@
         <v>130</v>
       </c>
       <c r="B512" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C512" s="34" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D512" s="34"/>
       <c r="E512" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -12020,14 +12029,14 @@
         <v>130</v>
       </c>
       <c r="B513" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C513" s="34" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D513" s="34"/>
       <c r="E513" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -12035,14 +12044,14 @@
         <v>130</v>
       </c>
       <c r="B514" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C514" s="34" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -12050,14 +12059,14 @@
         <v>130</v>
       </c>
       <c r="B515" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C515" s="34" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D515" s="34"/>
       <c r="E515" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -12065,14 +12074,14 @@
         <v>130</v>
       </c>
       <c r="B516" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C516" s="34" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D516" s="34"/>
       <c r="E516" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -12080,14 +12089,14 @@
         <v>130</v>
       </c>
       <c r="B517" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C517" s="34" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D517" s="34"/>
       <c r="E517" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -12095,14 +12104,14 @@
         <v>130</v>
       </c>
       <c r="B518" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C518" s="34" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D518" s="34"/>
       <c r="E518" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -12110,14 +12119,14 @@
         <v>130</v>
       </c>
       <c r="B519" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C519" s="34" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D519" s="34"/>
       <c r="E519" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -12125,14 +12134,14 @@
         <v>130</v>
       </c>
       <c r="B520" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C520" s="34" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D520" s="34"/>
       <c r="E520" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -12140,14 +12149,14 @@
         <v>130</v>
       </c>
       <c r="B521" s="34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C521" s="34" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D521" s="34"/>
       <c r="E521" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -12155,14 +12164,14 @@
         <v>130</v>
       </c>
       <c r="B522" s="34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C522" s="34" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D522" s="34"/>
       <c r="E522" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -12170,14 +12179,14 @@
         <v>130</v>
       </c>
       <c r="B523" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C523" s="34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D523" s="34"/>
       <c r="E523" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -12185,14 +12194,14 @@
         <v>130</v>
       </c>
       <c r="B524" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C524" s="34" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D524" s="34"/>
       <c r="E524" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -12200,14 +12209,14 @@
         <v>130</v>
       </c>
       <c r="B525" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C525" s="34" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D525" s="34"/>
       <c r="E525" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -12215,14 +12224,14 @@
         <v>130</v>
       </c>
       <c r="B526" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C526" s="34" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D526" s="34"/>
       <c r="E526" s="34" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -12230,14 +12239,14 @@
         <v>130</v>
       </c>
       <c r="B527" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C527" s="34" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D527" s="34"/>
       <c r="E527" s="34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12245,14 +12254,14 @@
         <v>130</v>
       </c>
       <c r="B528" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C528" s="34" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D528" s="34"/>
       <c r="E528" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12260,14 +12269,14 @@
         <v>130</v>
       </c>
       <c r="B529" s="34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C529" s="34" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D529" s="34"/>
       <c r="E529" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12275,14 +12284,14 @@
         <v>130</v>
       </c>
       <c r="B530" s="34" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C530" s="34" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D530" s="34"/>
       <c r="E530" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12290,14 +12299,14 @@
         <v>130</v>
       </c>
       <c r="B531" s="34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C531" s="34" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D531" s="34"/>
       <c r="E531" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12305,14 +12314,14 @@
         <v>130</v>
       </c>
       <c r="B532" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C532" s="34" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D532" s="34"/>
       <c r="E532" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12320,14 +12329,14 @@
         <v>130</v>
       </c>
       <c r="B533" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C533" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D533" s="34"/>
       <c r="E533" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12335,14 +12344,14 @@
         <v>130</v>
       </c>
       <c r="B534" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C534" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D534" s="34"/>
       <c r="E534" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12350,14 +12359,14 @@
         <v>130</v>
       </c>
       <c r="B535" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C535" s="34" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D535" s="34"/>
       <c r="E535" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12365,14 +12374,14 @@
         <v>130</v>
       </c>
       <c r="B536" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C536" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D536" s="34"/>
       <c r="E536" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12380,14 +12389,14 @@
         <v>130</v>
       </c>
       <c r="B537" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C537" s="34" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D537" s="34"/>
       <c r="E537" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12395,14 +12404,14 @@
         <v>130</v>
       </c>
       <c r="B538" s="35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C538" s="35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D538" s="35"/>
       <c r="E538" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12410,14 +12419,14 @@
         <v>130</v>
       </c>
       <c r="B539" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C539" s="34" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D539" s="34"/>
       <c r="E539" s="34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12425,14 +12434,14 @@
         <v>130</v>
       </c>
       <c r="B540" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C540" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D540" s="34"/>
       <c r="E540" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12440,14 +12449,14 @@
         <v>130</v>
       </c>
       <c r="B541" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C541" s="34" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D541" s="34"/>
       <c r="E541" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12455,14 +12464,14 @@
         <v>130</v>
       </c>
       <c r="B542" s="34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C542" s="34" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D542" s="34"/>
       <c r="E542" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12470,14 +12479,14 @@
         <v>130</v>
       </c>
       <c r="B543" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C543" s="34" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D543" s="34"/>
       <c r="E543" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12485,14 +12494,14 @@
         <v>130</v>
       </c>
       <c r="B544" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C544" s="34" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D544" s="34"/>
       <c r="E544" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12500,14 +12509,14 @@
         <v>130</v>
       </c>
       <c r="B545" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C545" s="34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D545" s="34"/>
       <c r="E545" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12515,14 +12524,14 @@
         <v>130</v>
       </c>
       <c r="B546" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C546" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D546" s="34"/>
       <c r="E546" s="34" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12530,14 +12539,14 @@
         <v>130</v>
       </c>
       <c r="B547" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C547" s="34" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D547" s="34"/>
       <c r="E547" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12545,14 +12554,14 @@
         <v>130</v>
       </c>
       <c r="B548" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C548" s="34" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D548" s="34"/>
       <c r="E548" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12560,14 +12569,14 @@
         <v>130</v>
       </c>
       <c r="B549" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C549" s="34" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D549" s="34"/>
       <c r="E549" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12575,14 +12584,14 @@
         <v>130</v>
       </c>
       <c r="B550" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C550" s="34" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D550" s="34"/>
       <c r="E550" s="34" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12590,14 +12599,14 @@
         <v>130</v>
       </c>
       <c r="B551" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C551" s="34" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D551" s="34"/>
       <c r="E551" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12605,14 +12614,14 @@
         <v>130</v>
       </c>
       <c r="B552" s="34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C552" s="34" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D552" s="34"/>
       <c r="E552" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12620,14 +12629,14 @@
         <v>130</v>
       </c>
       <c r="B553" s="34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C553" s="34" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D553" s="34"/>
       <c r="E553" s="34" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12635,14 +12644,14 @@
         <v>130</v>
       </c>
       <c r="B554" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C554" s="34" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D554" s="34"/>
       <c r="E554" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12650,14 +12659,14 @@
         <v>130</v>
       </c>
       <c r="B555" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C555" s="34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D555" s="34"/>
       <c r="E555" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12665,14 +12674,14 @@
         <v>130</v>
       </c>
       <c r="B556" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C556" s="34" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D556" s="34"/>
       <c r="E556" s="34" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12680,14 +12689,14 @@
         <v>130</v>
       </c>
       <c r="B557" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C557" s="34" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D557" s="34"/>
       <c r="E557" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12695,14 +12704,14 @@
         <v>130</v>
       </c>
       <c r="B558" s="34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C558" s="34" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D558" s="34"/>
       <c r="E558" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12710,14 +12719,14 @@
         <v>130</v>
       </c>
       <c r="B559" s="34" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C559" s="34" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D559" s="34"/>
       <c r="E559" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12725,14 +12734,14 @@
         <v>130</v>
       </c>
       <c r="B560" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C560" s="34" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D560" s="34"/>
       <c r="E560" s="34" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12740,14 +12749,14 @@
         <v>130</v>
       </c>
       <c r="B561" s="34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C561" s="34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D561" s="34"/>
       <c r="E561" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12755,14 +12764,14 @@
         <v>130</v>
       </c>
       <c r="B562" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C562" s="34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D562" s="34"/>
       <c r="E562" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12770,14 +12779,14 @@
         <v>130</v>
       </c>
       <c r="B563" s="34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C563" s="34" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D563" s="34"/>
       <c r="E563" s="34" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12785,14 +12794,14 @@
         <v>130</v>
       </c>
       <c r="B564" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C564" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D564" s="34"/>
       <c r="E564" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12800,14 +12809,14 @@
         <v>130</v>
       </c>
       <c r="B565" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C565" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D565" s="34"/>
       <c r="E565" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12815,14 +12824,14 @@
         <v>130</v>
       </c>
       <c r="B566" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C566" s="34" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D566" s="34"/>
       <c r="E566" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12830,14 +12839,14 @@
         <v>130</v>
       </c>
       <c r="B567" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C567" s="34" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D567" s="34"/>
       <c r="E567" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12845,14 +12854,14 @@
         <v>130</v>
       </c>
       <c r="B568" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C568" s="34" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D568" s="34"/>
       <c r="E568" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12860,14 +12869,14 @@
         <v>130</v>
       </c>
       <c r="B569" s="34" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C569" s="34" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D569" s="34"/>
       <c r="E569" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12875,14 +12884,14 @@
         <v>130</v>
       </c>
       <c r="B570" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C570" s="34" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D570" s="34"/>
       <c r="E570" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12890,14 +12899,14 @@
         <v>130</v>
       </c>
       <c r="B571" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C571" s="34" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D571" s="34"/>
       <c r="E571" s="34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12905,14 +12914,14 @@
         <v>130</v>
       </c>
       <c r="B572" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C572" s="34" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D572" s="34"/>
       <c r="E572" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12920,14 +12929,14 @@
         <v>130</v>
       </c>
       <c r="B573" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C573" s="34" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D573" s="34"/>
       <c r="E573" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12935,14 +12944,14 @@
         <v>130</v>
       </c>
       <c r="B574" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C574" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D574" s="34"/>
       <c r="E574" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12950,14 +12959,14 @@
         <v>130</v>
       </c>
       <c r="B575" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C575" s="34" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D575" s="34"/>
       <c r="E575" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12965,14 +12974,14 @@
         <v>130</v>
       </c>
       <c r="B576" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C576" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D576" s="34"/>
       <c r="E576" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -12989,7 +12998,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13014,13 +13023,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B2" t="s">
         <v>842</v>
       </c>
-      <c r="C2">
-        <v>202105</v>
+      <c r="C2" t="s">
+        <v>843</v>
       </c>
       <c r="D2" t="s">
         <v>335</v>

--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B94A533-0E91-4893-B0DA-B5E47A238273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F410D4E-71E7-4B1B-B3F7-27127E5C7292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1015,6 +1015,18 @@
     <t>h_nbr_members</t>
   </si>
   <si>
+    <t>h_nbr_psac_girls</t>
+  </si>
+  <si>
+    <t>h_nbr_psac_boys</t>
+  </si>
+  <si>
+    <t>h_nbr_sac_girls</t>
+  </si>
+  <si>
+    <t>h_nbr_sac_boys</t>
+  </si>
+  <si>
     <t>h_nbr_adult_women</t>
   </si>
   <si>
@@ -2423,18 +2435,6 @@
   </si>
   <si>
     <t>h_sac</t>
-  </si>
-  <si>
-    <t>h_nbr_pgirls</t>
-  </si>
-  <si>
-    <t>h_nbr_pboys</t>
-  </si>
-  <si>
-    <t>h_nbr_girls</t>
-  </si>
-  <si>
-    <t>h_nbr_boys</t>
   </si>
   <si>
     <t>pd_id</t>
@@ -3354,10 +3354,10 @@
   <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
@@ -3383,10 +3383,10 @@
         <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>76</v>
@@ -3395,7 +3395,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>78</v>
@@ -3407,7 +3407,7 @@
         <v>80</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>81</v>
@@ -3416,7 +3416,7 @@
         <v>82</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="O1" s="7"/>
     </row>
@@ -3428,7 +3428,7 @@
         <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>84</v>
@@ -3442,7 +3442,7 @@
         <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>302</v>
@@ -3487,7 +3487,7 @@
         <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
@@ -3583,7 +3583,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>10</v>
@@ -3597,19 +3597,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>753</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>749</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>743</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>745</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>84</v>
@@ -3623,19 +3623,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>84</v>
@@ -3680,10 +3680,10 @@
         <v>319</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>84</v>
@@ -3700,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>84</v>
@@ -3717,7 +3717,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>84</v>
@@ -3734,7 +3734,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>84</v>
@@ -3745,13 +3745,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>84</v>
@@ -3816,13 +3816,13 @@
         <v>20</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>323</v>
@@ -3831,7 +3831,7 @@
         <v>84</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="32" customFormat="1">
@@ -3859,7 +3859,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>798</v>
+        <v>328</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>23</v>
@@ -3876,7 +3876,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>799</v>
+        <v>329</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>24</v>
@@ -3893,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>800</v>
+        <v>330</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>25</v>
@@ -3910,7 +3910,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>801</v>
+        <v>331</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>26</v>
@@ -3927,7 +3927,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>27</v>
@@ -3944,7 +3944,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>28</v>
@@ -3975,7 +3975,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
@@ -3992,7 +3992,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -4009,7 +4009,7 @@
         <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>33</v>
@@ -4026,7 +4026,7 @@
         <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>34</v>
@@ -4043,7 +4043,7 @@
         <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>35</v>
@@ -4060,7 +4060,7 @@
         <v>102</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>36</v>
@@ -4077,7 +4077,7 @@
         <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>37</v>
@@ -4094,7 +4094,7 @@
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>38</v>
@@ -4111,7 +4111,7 @@
         <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
@@ -4128,7 +4128,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>40</v>
@@ -4145,13 +4145,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>84</v>
@@ -4162,7 +4162,7 @@
         <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>41</v>
@@ -4179,13 +4179,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>84</v>
@@ -4196,7 +4196,7 @@
         <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
@@ -4213,13 +4213,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>84</v>
@@ -4230,7 +4230,7 @@
         <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>43</v>
@@ -4247,13 +4247,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>84</v>
@@ -4264,7 +4264,7 @@
         <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>44</v>
@@ -4281,13 +4281,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>84</v>
@@ -4298,7 +4298,7 @@
         <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>45</v>
@@ -4315,13 +4315,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>84</v>
@@ -4346,7 +4346,7 @@
         <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>48</v>
@@ -4363,13 +4363,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>84</v>
@@ -4380,7 +4380,7 @@
         <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>50</v>
@@ -4397,13 +4397,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>84</v>
@@ -4414,7 +4414,7 @@
         <v>160</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>52</v>
@@ -4431,7 +4431,7 @@
         <v>165</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>53</v>
@@ -4448,7 +4448,7 @@
         <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>54</v>
@@ -4465,13 +4465,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>84</v>
@@ -4482,7 +4482,7 @@
         <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>56</v>
@@ -4499,13 +4499,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="H68" s="32" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>84</v>
@@ -4516,13 +4516,13 @@
         <v>102</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>84</v>
@@ -4533,13 +4533,13 @@
         <v>192</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>84</v>
@@ -4550,13 +4550,13 @@
         <v>194</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>84</v>
@@ -4567,13 +4567,13 @@
         <v>198</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>84</v>
@@ -4584,13 +4584,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="H73" s="32" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>84</v>
@@ -4601,7 +4601,7 @@
         <v>205</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>57</v>
@@ -4618,13 +4618,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>84</v>
@@ -4635,10 +4635,10 @@
         <v>213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>58</v>
@@ -4655,10 +4655,10 @@
         <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>323</v>
@@ -4669,10 +4669,10 @@
     </row>
     <row r="80" spans="1:10" s="8" customFormat="1">
       <c r="A80" s="8" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>59</v>
@@ -4686,10 +4686,10 @@
         <v>102</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>84</v>
@@ -4697,16 +4697,16 @@
     </row>
     <row r="82" spans="1:10" s="8" customFormat="1">
       <c r="A82" s="8" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="8" customFormat="1"/>
@@ -4735,7 +4735,7 @@
         <v>803</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>323</v>
@@ -4752,7 +4752,7 @@
         <v>804</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>221</v>
@@ -4775,7 +4775,7 @@
         <v>805</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>323</v>
@@ -4860,7 +4860,7 @@
         <v>810</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>811</v>
@@ -4909,7 +4909,7 @@
         <v>814</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>815</v>
@@ -4957,7 +4957,7 @@
         <v>817</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>69</v>
@@ -4977,7 +4977,7 @@
         <v>818</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>819</v>
@@ -4988,12 +4988,12 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5040,7 +5040,7 @@
         <v>72</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -5212,7 +5212,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>89</v>
@@ -7161,7 +7161,7 @@
         <v>280</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="C196" s="25" t="s">
         <v>241</v>
@@ -7172,7 +7172,7 @@
         <v>280</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>242</v>
@@ -7183,7 +7183,7 @@
         <v>280</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C198" s="23" t="s">
         <v>243</v>
@@ -7418,10 +7418,10 @@
         <v>89</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C223" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D223" s="34"/>
       <c r="E223" s="34"/>
@@ -7431,10 +7431,10 @@
         <v>89</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C224" s="34" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D224" s="34"/>
       <c r="E224" s="34"/>
@@ -7444,10 +7444,10 @@
         <v>89</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C225" s="34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D225" s="34"/>
       <c r="E225" s="34"/>
@@ -7457,10 +7457,10 @@
         <v>89</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C226" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D226" s="34"/>
       <c r="E226" s="34"/>
@@ -7477,13 +7477,13 @@
         <v>90</v>
       </c>
       <c r="B228" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C228" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="D228" s="34" t="s">
         <v>390</v>
-      </c>
-      <c r="C228" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="D228" s="34" t="s">
-        <v>386</v>
       </c>
       <c r="E228" s="34"/>
     </row>
@@ -7492,13 +7492,13 @@
         <v>90</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C229" s="34" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D229" s="34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E229" s="34"/>
     </row>
@@ -7507,13 +7507,13 @@
         <v>90</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C230" s="34" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E230" s="34"/>
     </row>
@@ -7522,13 +7522,13 @@
         <v>90</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E231" s="34"/>
     </row>
@@ -7537,13 +7537,13 @@
         <v>90</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C232" s="34" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E232" s="34"/>
     </row>
@@ -7552,13 +7552,13 @@
         <v>90</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C233" s="34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D233" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E233" s="34"/>
     </row>
@@ -7567,13 +7567,13 @@
         <v>90</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C234" s="34" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D234" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E234" s="34"/>
     </row>
@@ -7582,13 +7582,13 @@
         <v>90</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C235" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E235" s="34"/>
     </row>
@@ -7597,13 +7597,13 @@
         <v>90</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C236" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E236" s="34"/>
     </row>
@@ -7612,13 +7612,13 @@
         <v>90</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C237" s="34" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D237" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E237" s="34"/>
     </row>
@@ -7627,13 +7627,13 @@
         <v>90</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C238" s="34" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D238" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E238" s="34"/>
     </row>
@@ -7642,13 +7642,13 @@
         <v>90</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E239" s="34"/>
     </row>
@@ -7657,13 +7657,13 @@
         <v>90</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C240" s="34" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D240" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E240" s="34"/>
     </row>
@@ -7672,13 +7672,13 @@
         <v>90</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C241" s="34" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D241" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E241" s="34"/>
     </row>
@@ -7687,13 +7687,13 @@
         <v>90</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C242" s="34" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D242" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E242" s="34"/>
     </row>
@@ -7702,13 +7702,13 @@
         <v>90</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C243" s="34" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E243" s="34"/>
     </row>
@@ -7717,13 +7717,13 @@
         <v>90</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C244" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E244" s="34"/>
     </row>
@@ -7732,13 +7732,13 @@
         <v>90</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C245" s="34" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E245" s="34"/>
     </row>
@@ -7747,13 +7747,13 @@
         <v>90</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C246" s="34" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E246" s="34"/>
     </row>
@@ -7762,13 +7762,13 @@
         <v>90</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C247" s="34" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D247" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E247" s="34"/>
     </row>
@@ -7777,13 +7777,13 @@
         <v>90</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C248" s="34" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D248" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E248" s="34"/>
     </row>
@@ -7792,13 +7792,13 @@
         <v>90</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C249" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D249" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E249" s="34"/>
     </row>
@@ -7807,13 +7807,13 @@
         <v>90</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C250" s="34" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D250" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E250" s="34"/>
     </row>
@@ -7822,13 +7822,13 @@
         <v>90</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C251" s="34" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D251" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E251" s="34"/>
     </row>
@@ -7837,13 +7837,13 @@
         <v>90</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C252" s="34" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D252" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E252" s="34"/>
     </row>
@@ -7852,13 +7852,13 @@
         <v>90</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C253" s="34" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D253" s="34" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E253" s="34"/>
     </row>
@@ -7867,13 +7867,13 @@
         <v>90</v>
       </c>
       <c r="B254" s="34" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C254" s="34" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D254" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E254" s="34"/>
     </row>
@@ -7882,13 +7882,13 @@
         <v>90</v>
       </c>
       <c r="B255" s="34" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C255" s="34" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E255" s="34"/>
     </row>
@@ -7897,13 +7897,13 @@
         <v>90</v>
       </c>
       <c r="B256" s="34" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C256" s="34" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D256" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E256" s="34"/>
     </row>
@@ -7912,13 +7912,13 @@
         <v>90</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C257" s="34" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D257" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E257" s="34"/>
     </row>
@@ -7927,13 +7927,13 @@
         <v>90</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C258" s="34" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D258" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E258" s="34"/>
     </row>
@@ -7942,13 +7942,13 @@
         <v>90</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C259" s="34" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D259" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E259" s="34"/>
     </row>
@@ -7957,13 +7957,13 @@
         <v>90</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C260" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D260" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E260" s="34"/>
     </row>
@@ -7972,13 +7972,13 @@
         <v>90</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C261" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D261" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E261" s="34"/>
     </row>
@@ -7987,13 +7987,13 @@
         <v>90</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C262" s="34" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D262" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E262" s="34"/>
     </row>
@@ -8002,13 +8002,13 @@
         <v>90</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C263" s="34" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D263" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E263" s="34"/>
     </row>
@@ -8017,13 +8017,13 @@
         <v>90</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D264" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E264" s="34"/>
     </row>
@@ -8032,13 +8032,13 @@
         <v>90</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C265" s="34" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D265" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E265" s="34"/>
     </row>
@@ -8047,13 +8047,13 @@
         <v>90</v>
       </c>
       <c r="B266" s="34" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C266" s="34" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D266" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E266" s="34"/>
     </row>
@@ -8062,13 +8062,13 @@
         <v>90</v>
       </c>
       <c r="B267" s="34" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C267" s="34" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D267" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E267" s="34"/>
     </row>
@@ -8077,13 +8077,13 @@
         <v>90</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C268" s="34" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D268" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E268" s="34"/>
     </row>
@@ -8092,13 +8092,13 @@
         <v>90</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C269" s="34" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D269" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E269" s="34"/>
     </row>
@@ -8107,13 +8107,13 @@
         <v>90</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C270" s="34" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D270" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E270" s="34"/>
     </row>
@@ -8122,13 +8122,13 @@
         <v>90</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C271" s="34" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D271" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E271" s="34"/>
     </row>
@@ -8137,13 +8137,13 @@
         <v>90</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C272" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D272" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E272" s="34"/>
     </row>
@@ -8152,13 +8152,13 @@
         <v>90</v>
       </c>
       <c r="B273" s="34" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C273" s="34" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D273" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E273" s="34"/>
     </row>
@@ -8167,13 +8167,13 @@
         <v>90</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C274" s="34" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D274" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E274" s="34"/>
     </row>
@@ -8182,13 +8182,13 @@
         <v>90</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C275" s="34" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D275" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E275" s="34"/>
     </row>
@@ -8197,13 +8197,13 @@
         <v>90</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C276" s="34" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D276" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E276" s="34"/>
     </row>
@@ -8212,13 +8212,13 @@
         <v>90</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C277" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D277" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E277" s="34"/>
     </row>
@@ -8227,13 +8227,13 @@
         <v>90</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C278" s="34" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E278" s="34"/>
     </row>
@@ -8242,13 +8242,13 @@
         <v>90</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C279" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E279" s="34"/>
     </row>
@@ -8257,13 +8257,13 @@
         <v>90</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C280" s="34" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E280" s="34"/>
     </row>
@@ -8272,13 +8272,13 @@
         <v>90</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C281" s="34" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E281" s="34"/>
     </row>
@@ -8287,13 +8287,13 @@
         <v>90</v>
       </c>
       <c r="B282" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C282" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E282" s="34"/>
     </row>
@@ -8302,13 +8302,13 @@
         <v>90</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E283" s="34"/>
     </row>
@@ -8317,13 +8317,13 @@
         <v>90</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C284" s="34" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E284" s="34"/>
     </row>
@@ -8332,13 +8332,13 @@
         <v>90</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C285" s="34" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E285" s="34"/>
     </row>
@@ -8347,13 +8347,13 @@
         <v>90</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C286" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E286" s="34"/>
     </row>
@@ -8362,13 +8362,13 @@
         <v>90</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C287" s="34" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D287" s="34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E287" s="34"/>
     </row>
@@ -8377,13 +8377,13 @@
         <v>90</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C288" s="34" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D288" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E288" s="34"/>
     </row>
@@ -8392,13 +8392,13 @@
         <v>90</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C289" s="34" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D289" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E289" s="34"/>
     </row>
@@ -8407,13 +8407,13 @@
         <v>90</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C290" s="34" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D290" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E290" s="34"/>
     </row>
@@ -8422,13 +8422,13 @@
         <v>90</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C291" s="34" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D291" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E291" s="34"/>
     </row>
@@ -8437,13 +8437,13 @@
         <v>90</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C292" s="34" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D292" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E292" s="34"/>
     </row>
@@ -8452,13 +8452,13 @@
         <v>90</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C293" s="34" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D293" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E293" s="34"/>
     </row>
@@ -8467,13 +8467,13 @@
         <v>90</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C294" s="34" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D294" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E294" s="34"/>
     </row>
@@ -8482,13 +8482,13 @@
         <v>90</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C295" s="34" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D295" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E295" s="34"/>
     </row>
@@ -8497,13 +8497,13 @@
         <v>90</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C296" s="34" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D296" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E296" s="34"/>
     </row>
@@ -8512,13 +8512,13 @@
         <v>90</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C297" s="34" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D297" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E297" s="34"/>
     </row>
@@ -8527,13 +8527,13 @@
         <v>90</v>
       </c>
       <c r="B298" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C298" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D298" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E298" s="34"/>
     </row>
@@ -8542,13 +8542,13 @@
         <v>90</v>
       </c>
       <c r="B299" s="34" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C299" s="34" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="D299" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E299" s="34"/>
     </row>
@@ -8557,13 +8557,13 @@
         <v>90</v>
       </c>
       <c r="B300" s="34" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C300" s="34" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D300" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E300" s="34"/>
     </row>
@@ -8572,13 +8572,13 @@
         <v>90</v>
       </c>
       <c r="B301" s="34" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C301" s="34" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D301" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E301" s="34"/>
     </row>
@@ -8587,13 +8587,13 @@
         <v>90</v>
       </c>
       <c r="B302" s="34" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C302" s="34" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E302" s="34"/>
     </row>
@@ -8602,13 +8602,13 @@
         <v>90</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C303" s="34" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D303" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E303" s="34"/>
     </row>
@@ -8617,13 +8617,13 @@
         <v>90</v>
       </c>
       <c r="B304" s="34" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C304" s="34" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D304" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E304" s="34"/>
     </row>
@@ -8632,13 +8632,13 @@
         <v>90</v>
       </c>
       <c r="B305" s="34" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C305" s="34" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E305" s="34"/>
     </row>
@@ -8647,13 +8647,13 @@
         <v>90</v>
       </c>
       <c r="B306" s="34" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C306" s="34" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D306" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E306" s="34"/>
     </row>
@@ -8662,13 +8662,13 @@
         <v>90</v>
       </c>
       <c r="B307" s="34" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C307" s="34" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D307" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E307" s="34"/>
     </row>
@@ -8677,13 +8677,13 @@
         <v>90</v>
       </c>
       <c r="B308" s="34" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C308" s="34" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E308" s="34"/>
     </row>
@@ -8692,13 +8692,13 @@
         <v>90</v>
       </c>
       <c r="B309" s="34" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C309" s="34" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E309" s="34"/>
     </row>
@@ -8707,13 +8707,13 @@
         <v>90</v>
       </c>
       <c r="B310" s="34" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C310" s="34" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E310" s="34"/>
     </row>
@@ -8722,13 +8722,13 @@
         <v>90</v>
       </c>
       <c r="B311" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C311" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D311" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E311" s="34"/>
     </row>
@@ -8737,13 +8737,13 @@
         <v>90</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C312" s="34" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E312" s="34"/>
     </row>
@@ -8752,13 +8752,13 @@
         <v>90</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C313" s="34" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D313" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E313" s="34"/>
     </row>
@@ -8767,13 +8767,13 @@
         <v>90</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C314" s="34" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E314" s="34"/>
     </row>
@@ -8782,13 +8782,13 @@
         <v>90</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C315" s="34" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D315" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E315" s="34"/>
     </row>
@@ -8797,13 +8797,13 @@
         <v>90</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C316" s="34" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E316" s="34"/>
     </row>
@@ -8812,13 +8812,13 @@
         <v>90</v>
       </c>
       <c r="B317" s="34" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C317" s="34" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D317" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E317" s="34"/>
     </row>
@@ -8827,13 +8827,13 @@
         <v>90</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C318" s="34" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E318" s="34"/>
     </row>
@@ -8842,13 +8842,13 @@
         <v>90</v>
       </c>
       <c r="B319" s="34" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C319" s="34" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E319" s="34"/>
     </row>
@@ -8857,13 +8857,13 @@
         <v>90</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C320" s="34" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="D320" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E320" s="34"/>
     </row>
@@ -8872,13 +8872,13 @@
         <v>90</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C321" s="34" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D321" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E321" s="34"/>
     </row>
@@ -8887,13 +8887,13 @@
         <v>90</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="C322" s="34" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D322" s="34" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E322" s="34"/>
     </row>
@@ -8902,13 +8902,13 @@
         <v>90</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C323" s="34" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D323" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E323" s="34"/>
     </row>
@@ -8917,13 +8917,13 @@
         <v>90</v>
       </c>
       <c r="B324" s="34" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C324" s="34" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D324" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E324" s="34"/>
     </row>
@@ -8932,13 +8932,13 @@
         <v>90</v>
       </c>
       <c r="B325" s="34" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C325" s="34" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D325" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E325" s="34"/>
     </row>
@@ -8947,13 +8947,13 @@
         <v>90</v>
       </c>
       <c r="B326" s="34" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C326" s="34" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D326" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E326" s="34"/>
     </row>
@@ -8962,13 +8962,13 @@
         <v>90</v>
       </c>
       <c r="B327" s="34" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C327" s="34" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D327" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E327" s="34"/>
     </row>
@@ -8977,13 +8977,13 @@
         <v>90</v>
       </c>
       <c r="B328" s="34" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C328" s="34" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D328" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E328" s="34"/>
     </row>
@@ -8992,13 +8992,13 @@
         <v>90</v>
       </c>
       <c r="B329" s="34" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C329" s="34" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D329" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E329" s="34"/>
     </row>
@@ -9007,13 +9007,13 @@
         <v>90</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D330" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E330" s="34"/>
     </row>
@@ -9022,13 +9022,13 @@
         <v>90</v>
       </c>
       <c r="B331" s="34" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C331" s="34" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D331" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E331" s="34"/>
     </row>
@@ -9037,13 +9037,13 @@
         <v>90</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C332" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D332" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E332" s="34"/>
     </row>
@@ -9052,13 +9052,13 @@
         <v>90</v>
       </c>
       <c r="B333" s="34" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C333" s="34" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D333" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E333" s="34"/>
     </row>
@@ -9067,13 +9067,13 @@
         <v>90</v>
       </c>
       <c r="B334" s="34" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C334" s="34" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D334" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E334" s="34"/>
     </row>
@@ -9082,13 +9082,13 @@
         <v>90</v>
       </c>
       <c r="B335" s="34" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C335" s="34" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D335" s="34" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E335" s="34"/>
     </row>
@@ -9097,13 +9097,13 @@
         <v>90</v>
       </c>
       <c r="B336" s="34" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C336" s="34" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D336" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E336" s="34"/>
     </row>
@@ -9112,13 +9112,13 @@
         <v>90</v>
       </c>
       <c r="B337" s="34" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C337" s="34" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D337" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E337" s="34"/>
     </row>
@@ -9127,13 +9127,13 @@
         <v>90</v>
       </c>
       <c r="B338" s="34" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C338" s="34" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D338" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E338" s="34"/>
     </row>
@@ -9142,13 +9142,13 @@
         <v>90</v>
       </c>
       <c r="B339" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C339" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D339" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E339" s="34"/>
     </row>
@@ -9157,13 +9157,13 @@
         <v>90</v>
       </c>
       <c r="B340" s="34" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C340" s="34" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D340" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E340" s="34"/>
     </row>
@@ -9172,13 +9172,13 @@
         <v>90</v>
       </c>
       <c r="B341" s="34" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C341" s="34" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D341" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E341" s="34"/>
     </row>
@@ -9187,13 +9187,13 @@
         <v>90</v>
       </c>
       <c r="B342" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="C342" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D342" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E342" s="34"/>
     </row>
@@ -9202,13 +9202,13 @@
         <v>90</v>
       </c>
       <c r="B343" s="34" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C343" s="34" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D343" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E343" s="34"/>
     </row>
@@ -9217,13 +9217,13 @@
         <v>90</v>
       </c>
       <c r="B344" s="34" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C344" s="34" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D344" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E344" s="34"/>
     </row>
@@ -9232,13 +9232,13 @@
         <v>90</v>
       </c>
       <c r="B345" s="34" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="C345" s="34" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D345" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E345" s="34"/>
     </row>
@@ -9247,13 +9247,13 @@
         <v>90</v>
       </c>
       <c r="B346" s="34" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C346" s="34" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D346" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E346" s="34"/>
     </row>
@@ -9262,13 +9262,13 @@
         <v>90</v>
       </c>
       <c r="B347" s="34" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C347" s="34" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D347" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E347" s="34"/>
     </row>
@@ -9277,13 +9277,13 @@
         <v>90</v>
       </c>
       <c r="B348" s="34" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C348" s="34" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D348" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E348" s="34"/>
     </row>
@@ -9292,13 +9292,13 @@
         <v>90</v>
       </c>
       <c r="B349" s="34" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C349" s="34" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="D349" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E349" s="34"/>
     </row>
@@ -9307,13 +9307,13 @@
         <v>90</v>
       </c>
       <c r="B350" s="34" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C350" s="34" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D350" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E350" s="34"/>
     </row>
@@ -9322,13 +9322,13 @@
         <v>90</v>
       </c>
       <c r="B351" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C351" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D351" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E351" s="34"/>
     </row>
@@ -9337,13 +9337,13 @@
         <v>90</v>
       </c>
       <c r="B352" s="34" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C352" s="34" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D352" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E352" s="34"/>
     </row>
@@ -9352,13 +9352,13 @@
         <v>90</v>
       </c>
       <c r="B353" s="34" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C353" s="34" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D353" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E353" s="34"/>
     </row>
@@ -9367,13 +9367,13 @@
         <v>90</v>
       </c>
       <c r="B354" s="34" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C354" s="34" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D354" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E354" s="34"/>
     </row>
@@ -9382,13 +9382,13 @@
         <v>90</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C355" s="34" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D355" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E355" s="34"/>
     </row>
@@ -9397,13 +9397,13 @@
         <v>90</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C356" s="34" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D356" s="34" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E356" s="34"/>
     </row>
@@ -9412,13 +9412,13 @@
         <v>90</v>
       </c>
       <c r="B357" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C357" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D357" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E357" s="34"/>
     </row>
@@ -9427,13 +9427,13 @@
         <v>90</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C358" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D358" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E358" s="34"/>
     </row>
@@ -9442,13 +9442,13 @@
         <v>90</v>
       </c>
       <c r="B359" s="34" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="C359" s="34" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D359" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E359" s="34"/>
     </row>
@@ -9457,13 +9457,13 @@
         <v>90</v>
       </c>
       <c r="B360" s="34" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C360" s="34" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D360" s="34" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E360" s="34"/>
     </row>
@@ -9472,13 +9472,13 @@
         <v>90</v>
       </c>
       <c r="B361" s="34" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C361" s="34" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D361" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E361" s="34"/>
     </row>
@@ -9487,13 +9487,13 @@
         <v>90</v>
       </c>
       <c r="B362" s="34" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C362" s="34" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D362" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E362" s="34"/>
     </row>
@@ -9502,13 +9502,13 @@
         <v>90</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C363" s="34" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D363" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E363" s="34"/>
     </row>
@@ -9517,13 +9517,13 @@
         <v>90</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C364" s="34" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D364" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E364" s="34"/>
     </row>
@@ -9532,13 +9532,13 @@
         <v>90</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C365" s="34" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D365" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E365" s="34"/>
     </row>
@@ -9547,13 +9547,13 @@
         <v>90</v>
       </c>
       <c r="B366" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C366" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D366" s="34" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="E366" s="34"/>
     </row>
@@ -9562,13 +9562,13 @@
         <v>90</v>
       </c>
       <c r="B367" s="34" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C367" s="34" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D367" s="34" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E367" s="34"/>
     </row>
@@ -9584,14 +9584,14 @@
         <v>91</v>
       </c>
       <c r="B369" s="34" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C369" s="34" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="D369" s="34"/>
       <c r="E369" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9599,14 +9599,14 @@
         <v>91</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C370" s="34" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="D370" s="34"/>
       <c r="E370" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9614,14 +9614,14 @@
         <v>91</v>
       </c>
       <c r="B371" s="34" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C371" s="34" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D371" s="34"/>
       <c r="E371" s="34" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9629,14 +9629,14 @@
         <v>91</v>
       </c>
       <c r="B372" s="34" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C372" s="34" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D372" s="34"/>
       <c r="E372" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9644,14 +9644,14 @@
         <v>91</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C373" s="34" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D373" s="34"/>
       <c r="E373" s="34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9659,14 +9659,14 @@
         <v>91</v>
       </c>
       <c r="B374" s="34" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="C374" s="34" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D374" s="34"/>
       <c r="E374" s="34" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9674,14 +9674,14 @@
         <v>91</v>
       </c>
       <c r="B375" s="34" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C375" s="34" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D375" s="34"/>
       <c r="E375" s="34" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9689,14 +9689,14 @@
         <v>91</v>
       </c>
       <c r="B376" s="34" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C376" s="34" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D376" s="34"/>
       <c r="E376" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9704,14 +9704,14 @@
         <v>91</v>
       </c>
       <c r="B377" s="34" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C377" s="34" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="D377" s="34"/>
       <c r="E377" s="34" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9719,14 +9719,14 @@
         <v>91</v>
       </c>
       <c r="B378" s="34" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C378" s="34" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D378" s="34"/>
       <c r="E378" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9734,14 +9734,14 @@
         <v>91</v>
       </c>
       <c r="B379" s="34" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C379" s="34" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D379" s="34"/>
       <c r="E379" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9749,14 +9749,14 @@
         <v>91</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C380" s="34" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D380" s="34"/>
       <c r="E380" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9764,14 +9764,14 @@
         <v>91</v>
       </c>
       <c r="B381" s="34" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="C381" s="34" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D381" s="34"/>
       <c r="E381" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9779,14 +9779,14 @@
         <v>91</v>
       </c>
       <c r="B382" s="34" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C382" s="34" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D382" s="34"/>
       <c r="E382" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9794,14 +9794,14 @@
         <v>91</v>
       </c>
       <c r="B383" s="34" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C383" s="34" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D383" s="34"/>
       <c r="E383" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9809,14 +9809,14 @@
         <v>91</v>
       </c>
       <c r="B384" s="34" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C384" s="34" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D384" s="34"/>
       <c r="E384" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9824,14 +9824,14 @@
         <v>91</v>
       </c>
       <c r="B385" s="34" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C385" s="34" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D385" s="34"/>
       <c r="E385" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9839,14 +9839,14 @@
         <v>91</v>
       </c>
       <c r="B386" s="34" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C386" s="34" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D386" s="34"/>
       <c r="E386" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9854,14 +9854,14 @@
         <v>91</v>
       </c>
       <c r="B387" s="34" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C387" s="34" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D387" s="34"/>
       <c r="E387" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9869,14 +9869,14 @@
         <v>91</v>
       </c>
       <c r="B388" s="34" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C388" s="34" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D388" s="34"/>
       <c r="E388" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9884,14 +9884,14 @@
         <v>91</v>
       </c>
       <c r="B389" s="34" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C389" s="34" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D389" s="34"/>
       <c r="E389" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9899,14 +9899,14 @@
         <v>91</v>
       </c>
       <c r="B390" s="34" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C390" s="34" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D390" s="34"/>
       <c r="E390" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9914,14 +9914,14 @@
         <v>91</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C391" s="34" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D391" s="34"/>
       <c r="E391" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9929,14 +9929,14 @@
         <v>91</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C392" s="34" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="D392" s="34"/>
       <c r="E392" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9944,14 +9944,14 @@
         <v>91</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C393" s="34" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D393" s="34"/>
       <c r="E393" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9959,14 +9959,14 @@
         <v>91</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C394" s="34" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D394" s="34"/>
       <c r="E394" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9974,14 +9974,14 @@
         <v>91</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C395" s="34" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="D395" s="34"/>
       <c r="E395" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9989,14 +9989,14 @@
         <v>91</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C396" s="34" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D396" s="34"/>
       <c r="E396" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10004,14 +10004,14 @@
         <v>91</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C397" s="34" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D397" s="34"/>
       <c r="E397" s="34" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10019,14 +10019,14 @@
         <v>91</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C398" s="34" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D398" s="34"/>
       <c r="E398" s="34" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10034,14 +10034,14 @@
         <v>91</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C399" s="34" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="D399" s="34"/>
       <c r="E399" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10049,14 +10049,14 @@
         <v>91</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C400" s="34" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D400" s="34"/>
       <c r="E400" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10064,14 +10064,14 @@
         <v>91</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C401" s="34" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D401" s="34"/>
       <c r="E401" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10079,14 +10079,14 @@
         <v>91</v>
       </c>
       <c r="B402" s="34" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C402" s="34" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D402" s="34"/>
       <c r="E402" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10094,14 +10094,14 @@
         <v>91</v>
       </c>
       <c r="B403" s="34" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C403" s="34" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D403" s="34"/>
       <c r="E403" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10109,14 +10109,14 @@
         <v>91</v>
       </c>
       <c r="B404" s="34" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C404" s="34" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D404" s="34"/>
       <c r="E404" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10124,14 +10124,14 @@
         <v>91</v>
       </c>
       <c r="B405" s="34" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C405" s="34" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D405" s="34"/>
       <c r="E405" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10139,14 +10139,14 @@
         <v>91</v>
       </c>
       <c r="B406" s="34" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C406" s="34" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D406" s="34"/>
       <c r="E406" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10154,14 +10154,14 @@
         <v>91</v>
       </c>
       <c r="B407" s="34" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C407" s="34" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D407" s="34"/>
       <c r="E407" s="34" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10169,14 +10169,14 @@
         <v>91</v>
       </c>
       <c r="B408" s="34" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C408" s="34" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D408" s="34"/>
       <c r="E408" s="34" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10184,14 +10184,14 @@
         <v>91</v>
       </c>
       <c r="B409" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C409" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D409" s="34"/>
       <c r="E409" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10199,14 +10199,14 @@
         <v>91</v>
       </c>
       <c r="B410" s="34" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C410" s="34" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D410" s="34"/>
       <c r="E410" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10214,14 +10214,14 @@
         <v>91</v>
       </c>
       <c r="B411" s="34" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="C411" s="34" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D411" s="34"/>
       <c r="E411" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10229,14 +10229,14 @@
         <v>91</v>
       </c>
       <c r="B412" s="34" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C412" s="34" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D412" s="34"/>
       <c r="E412" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10244,14 +10244,14 @@
         <v>91</v>
       </c>
       <c r="B413" s="34" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C413" s="34" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="D413" s="34"/>
       <c r="E413" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10259,14 +10259,14 @@
         <v>91</v>
       </c>
       <c r="B414" s="34" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C414" s="34" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D414" s="34"/>
       <c r="E414" s="34" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10274,14 +10274,14 @@
         <v>91</v>
       </c>
       <c r="B415" s="34" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C415" s="34" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="D415" s="34"/>
       <c r="E415" s="34" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10289,14 +10289,14 @@
         <v>91</v>
       </c>
       <c r="B416" s="34" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C416" s="34" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D416" s="34"/>
       <c r="E416" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10304,14 +10304,14 @@
         <v>91</v>
       </c>
       <c r="B417" s="34" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C417" s="34" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D417" s="34"/>
       <c r="E417" s="34" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10319,14 +10319,14 @@
         <v>91</v>
       </c>
       <c r="B418" s="34" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C418" s="34" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D418" s="34"/>
       <c r="E418" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10334,14 +10334,14 @@
         <v>91</v>
       </c>
       <c r="B419" s="34" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C419" s="34" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="D419" s="34"/>
       <c r="E419" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10349,14 +10349,14 @@
         <v>91</v>
       </c>
       <c r="B420" s="34" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C420" s="34" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D420" s="34"/>
       <c r="E420" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10364,14 +10364,14 @@
         <v>91</v>
       </c>
       <c r="B421" s="34" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C421" s="34" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D421" s="34"/>
       <c r="E421" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10379,14 +10379,14 @@
         <v>91</v>
       </c>
       <c r="B422" s="34" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C422" s="34" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D422" s="34"/>
       <c r="E422" s="34" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10394,14 +10394,14 @@
         <v>91</v>
       </c>
       <c r="B423" s="34" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C423" s="34" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D423" s="34"/>
       <c r="E423" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10409,14 +10409,14 @@
         <v>91</v>
       </c>
       <c r="B424" s="34" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C424" s="34" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D424" s="34"/>
       <c r="E424" s="34" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10424,14 +10424,14 @@
         <v>91</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C425" s="34" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D425" s="34"/>
       <c r="E425" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10439,14 +10439,14 @@
         <v>91</v>
       </c>
       <c r="B426" s="34" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C426" s="34" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D426" s="34"/>
       <c r="E426" s="34" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10454,14 +10454,14 @@
         <v>91</v>
       </c>
       <c r="B427" s="34" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C427" s="34" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="D427" s="34"/>
       <c r="E427" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10469,14 +10469,14 @@
         <v>91</v>
       </c>
       <c r="B428" s="34" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C428" s="34" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D428" s="34"/>
       <c r="E428" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10484,14 +10484,14 @@
         <v>91</v>
       </c>
       <c r="B429" s="34" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C429" s="34" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D429" s="34"/>
       <c r="E429" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10499,14 +10499,14 @@
         <v>91</v>
       </c>
       <c r="B430" s="34" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C430" s="34" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D430" s="34"/>
       <c r="E430" s="34" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10514,14 +10514,14 @@
         <v>91</v>
       </c>
       <c r="B431" s="34" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C431" s="34" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D431" s="34"/>
       <c r="E431" s="34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10529,14 +10529,14 @@
         <v>91</v>
       </c>
       <c r="B432" s="34" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C432" s="34" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D432" s="34"/>
       <c r="E432" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10544,14 +10544,14 @@
         <v>91</v>
       </c>
       <c r="B433" s="34" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C433" s="34" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D433" s="34"/>
       <c r="E433" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10559,14 +10559,14 @@
         <v>91</v>
       </c>
       <c r="B434" s="34" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C434" s="34" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10574,14 +10574,14 @@
         <v>91</v>
       </c>
       <c r="B435" s="34" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C435" s="34" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D435" s="34"/>
       <c r="E435" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10589,14 +10589,14 @@
         <v>91</v>
       </c>
       <c r="B436" s="34" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C436" s="34" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="D436" s="34"/>
       <c r="E436" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10604,14 +10604,14 @@
         <v>91</v>
       </c>
       <c r="B437" s="34" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C437" s="34" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10619,14 +10619,14 @@
         <v>91</v>
       </c>
       <c r="B438" s="34" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C438" s="34" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D438" s="34"/>
       <c r="E438" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10634,14 +10634,14 @@
         <v>91</v>
       </c>
       <c r="B439" s="34" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C439" s="34" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D439" s="34"/>
       <c r="E439" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10649,14 +10649,14 @@
         <v>91</v>
       </c>
       <c r="B440" s="34" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C440" s="34" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="D440" s="34"/>
       <c r="E440" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10664,14 +10664,14 @@
         <v>91</v>
       </c>
       <c r="B441" s="34" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C441" s="34" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D441" s="34"/>
       <c r="E441" s="34" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10679,14 +10679,14 @@
         <v>91</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="D442" s="34"/>
       <c r="E442" s="34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10694,14 +10694,14 @@
         <v>91</v>
       </c>
       <c r="B443" s="34" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C443" s="34" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D443" s="34"/>
       <c r="E443" s="34" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10709,14 +10709,14 @@
         <v>91</v>
       </c>
       <c r="B444" s="34" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C444" s="34" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D444" s="34"/>
       <c r="E444" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10724,14 +10724,14 @@
         <v>91</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C445" s="34" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D445" s="34"/>
       <c r="E445" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10739,14 +10739,14 @@
         <v>91</v>
       </c>
       <c r="B446" s="34" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C446" s="34" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="D446" s="34"/>
       <c r="E446" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10754,14 +10754,14 @@
         <v>91</v>
       </c>
       <c r="B447" s="34" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C447" s="34" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D447" s="34"/>
       <c r="E447" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10769,14 +10769,14 @@
         <v>91</v>
       </c>
       <c r="B448" s="34" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C448" s="34" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="D448" s="34"/>
       <c r="E448" s="34" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10784,14 +10784,14 @@
         <v>91</v>
       </c>
       <c r="B449" s="34" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C449" s="34" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D449" s="34"/>
       <c r="E449" s="34" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10799,14 +10799,14 @@
         <v>91</v>
       </c>
       <c r="B450" s="34" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D450" s="34"/>
       <c r="E450" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10814,14 +10814,14 @@
         <v>91</v>
       </c>
       <c r="B451" s="34" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C451" s="34" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D451" s="34"/>
       <c r="E451" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10829,14 +10829,14 @@
         <v>91</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C452" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D452" s="34"/>
       <c r="E452" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10844,14 +10844,14 @@
         <v>91</v>
       </c>
       <c r="B453" s="34" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C453" s="34" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D453" s="34"/>
       <c r="E453" s="34" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10859,14 +10859,14 @@
         <v>91</v>
       </c>
       <c r="B454" s="34" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C454" s="34" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D454" s="34"/>
       <c r="E454" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10874,14 +10874,14 @@
         <v>91</v>
       </c>
       <c r="B455" s="34" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C455" s="34" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D455" s="34"/>
       <c r="E455" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10889,14 +10889,14 @@
         <v>91</v>
       </c>
       <c r="B456" s="34" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C456" s="34" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D456" s="34"/>
       <c r="E456" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10904,14 +10904,14 @@
         <v>91</v>
       </c>
       <c r="B457" s="34" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C457" s="34" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D457" s="34"/>
       <c r="E457" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10919,14 +10919,14 @@
         <v>91</v>
       </c>
       <c r="B458" s="34" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C458" s="34" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D458" s="34"/>
       <c r="E458" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10934,14 +10934,14 @@
         <v>91</v>
       </c>
       <c r="B459" s="34" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C459" s="34" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D459" s="34"/>
       <c r="E459" s="34" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10949,14 +10949,14 @@
         <v>91</v>
       </c>
       <c r="B460" s="34" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="C460" s="34" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="D460" s="34"/>
       <c r="E460" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10964,14 +10964,14 @@
         <v>91</v>
       </c>
       <c r="B461" s="34" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C461" s="34" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D461" s="34"/>
       <c r="E461" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10979,14 +10979,14 @@
         <v>91</v>
       </c>
       <c r="B462" s="34" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C462" s="34" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="D462" s="34"/>
       <c r="E462" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10994,14 +10994,14 @@
         <v>91</v>
       </c>
       <c r="B463" s="34" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C463" s="34" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D463" s="34"/>
       <c r="E463" s="34" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11009,14 +11009,14 @@
         <v>91</v>
       </c>
       <c r="B464" s="34" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C464" s="34" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="D464" s="34"/>
       <c r="E464" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11024,14 +11024,14 @@
         <v>91</v>
       </c>
       <c r="B465" s="34" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C465" s="34" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D465" s="34"/>
       <c r="E465" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11039,14 +11039,14 @@
         <v>91</v>
       </c>
       <c r="B466" s="34" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C466" s="34" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="D466" s="34"/>
       <c r="E466" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11054,14 +11054,14 @@
         <v>91</v>
       </c>
       <c r="B467" s="34" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C467" s="34" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D467" s="34"/>
       <c r="E467" s="34" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11069,14 +11069,14 @@
         <v>91</v>
       </c>
       <c r="B468" s="34" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="C468" s="34" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D468" s="34"/>
       <c r="E468" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11084,14 +11084,14 @@
         <v>91</v>
       </c>
       <c r="B469" s="34" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C469" s="34" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="D469" s="34"/>
       <c r="E469" s="34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11099,14 +11099,14 @@
         <v>91</v>
       </c>
       <c r="B470" s="34" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C470" s="34" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D470" s="34"/>
       <c r="E470" s="34" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11114,14 +11114,14 @@
         <v>91</v>
       </c>
       <c r="B471" s="34" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C471" s="34" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D471" s="34"/>
       <c r="E471" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11129,14 +11129,14 @@
         <v>91</v>
       </c>
       <c r="B472" s="34" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="C472" s="34" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D472" s="34"/>
       <c r="E472" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11144,14 +11144,14 @@
         <v>91</v>
       </c>
       <c r="B473" s="34" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C473" s="34" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="D473" s="34"/>
       <c r="E473" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11159,14 +11159,14 @@
         <v>91</v>
       </c>
       <c r="B474" s="34" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="C474" s="34" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D474" s="34"/>
       <c r="E474" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11174,14 +11174,14 @@
         <v>91</v>
       </c>
       <c r="B475" s="34" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="C475" s="34" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="D475" s="34"/>
       <c r="E475" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11189,14 +11189,14 @@
         <v>91</v>
       </c>
       <c r="B476" s="34" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C476" s="34" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="D476" s="34"/>
       <c r="E476" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11204,14 +11204,14 @@
         <v>91</v>
       </c>
       <c r="B477" s="34" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C477" s="34" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D477" s="34"/>
       <c r="E477" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11219,14 +11219,14 @@
         <v>91</v>
       </c>
       <c r="B478" s="34" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C478" s="34" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D478" s="34"/>
       <c r="E478" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11234,14 +11234,14 @@
         <v>91</v>
       </c>
       <c r="B479" s="34" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C479" s="34" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D479" s="34"/>
       <c r="E479" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11249,14 +11249,14 @@
         <v>91</v>
       </c>
       <c r="B480" s="34" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="C480" s="34" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="D480" s="34"/>
       <c r="E480" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11264,14 +11264,14 @@
         <v>91</v>
       </c>
       <c r="B481" s="34" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C481" s="34" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D481" s="34"/>
       <c r="E481" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11279,14 +11279,14 @@
         <v>91</v>
       </c>
       <c r="B482" s="34" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="C482" s="34" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D482" s="34"/>
       <c r="E482" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11294,14 +11294,14 @@
         <v>91</v>
       </c>
       <c r="B483" s="34" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C483" s="34" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="D483" s="34"/>
       <c r="E483" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11309,14 +11309,14 @@
         <v>91</v>
       </c>
       <c r="B484" s="34" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C484" s="34" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D484" s="34"/>
       <c r="E484" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11324,14 +11324,14 @@
         <v>91</v>
       </c>
       <c r="B485" s="34" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="C485" s="34" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D485" s="34"/>
       <c r="E485" s="34" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11339,14 +11339,14 @@
         <v>91</v>
       </c>
       <c r="B486" s="34" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C486" s="34" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D486" s="34"/>
       <c r="E486" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11354,14 +11354,14 @@
         <v>91</v>
       </c>
       <c r="B487" s="34" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="C487" s="34" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="D487" s="34"/>
       <c r="E487" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11369,14 +11369,14 @@
         <v>91</v>
       </c>
       <c r="B488" s="34" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C488" s="34" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D488" s="34"/>
       <c r="E488" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11384,14 +11384,14 @@
         <v>91</v>
       </c>
       <c r="B489" s="34" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="C489" s="34" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D489" s="34"/>
       <c r="E489" s="34" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11399,14 +11399,14 @@
         <v>91</v>
       </c>
       <c r="B490" s="34" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="C490" s="34" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D490" s="34"/>
       <c r="E490" s="34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11414,14 +11414,14 @@
         <v>91</v>
       </c>
       <c r="B491" s="34" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C491" s="34" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D491" s="34"/>
       <c r="E491" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11429,14 +11429,14 @@
         <v>91</v>
       </c>
       <c r="B492" s="34" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="C492" s="34" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D492" s="34"/>
       <c r="E492" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11444,14 +11444,14 @@
         <v>91</v>
       </c>
       <c r="B493" s="34" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C493" s="34" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D493" s="34"/>
       <c r="E493" s="34" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11459,14 +11459,14 @@
         <v>91</v>
       </c>
       <c r="B494" s="34" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="C494" s="34" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D494" s="34"/>
       <c r="E494" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11474,14 +11474,14 @@
         <v>91</v>
       </c>
       <c r="B495" s="34" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C495" s="34" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D495" s="34"/>
       <c r="E495" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11489,14 +11489,14 @@
         <v>91</v>
       </c>
       <c r="B496" s="34" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C496" s="34" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D496" s="34"/>
       <c r="E496" s="34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11504,14 +11504,14 @@
         <v>91</v>
       </c>
       <c r="B497" s="34" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="C497" s="34" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="D497" s="34"/>
       <c r="E497" s="34" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11519,14 +11519,14 @@
         <v>91</v>
       </c>
       <c r="B498" s="34" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C498" s="34" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D498" s="34"/>
       <c r="E498" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11534,14 +11534,14 @@
         <v>91</v>
       </c>
       <c r="B499" s="34" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="C499" s="34" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="D499" s="34"/>
       <c r="E499" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11549,14 +11549,14 @@
         <v>91</v>
       </c>
       <c r="B500" s="34" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C500" s="34" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D500" s="34"/>
       <c r="E500" s="34" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11564,14 +11564,14 @@
         <v>91</v>
       </c>
       <c r="B501" s="34" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C501" s="34" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D501" s="34"/>
       <c r="E501" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11579,14 +11579,14 @@
         <v>91</v>
       </c>
       <c r="B502" s="34" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C502" s="34" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D502" s="34"/>
       <c r="E502" s="34" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11594,14 +11594,14 @@
         <v>91</v>
       </c>
       <c r="B503" s="34" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C503" s="34" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D503" s="34"/>
       <c r="E503" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11609,14 +11609,14 @@
         <v>91</v>
       </c>
       <c r="B504" s="34" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C504" s="34" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D504" s="34"/>
       <c r="E504" s="34" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11624,14 +11624,14 @@
         <v>91</v>
       </c>
       <c r="B505" s="34" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="C505" s="34" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D505" s="34"/>
       <c r="E505" s="34" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11639,14 +11639,14 @@
         <v>91</v>
       </c>
       <c r="B506" s="34" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C506" s="34" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D506" s="34"/>
       <c r="E506" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11654,14 +11654,14 @@
         <v>91</v>
       </c>
       <c r="B507" s="34" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C507" s="34" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="D507" s="34"/>
       <c r="E507" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11669,14 +11669,14 @@
         <v>91</v>
       </c>
       <c r="B508" s="34" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C508" s="34" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D508" s="34"/>
       <c r="E508" s="34" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11684,14 +11684,14 @@
         <v>91</v>
       </c>
       <c r="B509" s="34" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="C509" s="34" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D509" s="34"/>
       <c r="E509" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11699,14 +11699,14 @@
         <v>91</v>
       </c>
       <c r="B510" s="34" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C510" s="34" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D510" s="34"/>
       <c r="E510" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11714,14 +11714,14 @@
         <v>91</v>
       </c>
       <c r="B511" s="34" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C511" s="34" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D511" s="34"/>
       <c r="E511" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11729,14 +11729,14 @@
         <v>91</v>
       </c>
       <c r="B512" s="34" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C512" s="34" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D512" s="34"/>
       <c r="E512" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11744,14 +11744,14 @@
         <v>91</v>
       </c>
       <c r="B513" s="34" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C513" s="34" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="D513" s="34"/>
       <c r="E513" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11759,14 +11759,14 @@
         <v>91</v>
       </c>
       <c r="B514" s="34" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C514" s="34" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11774,14 +11774,14 @@
         <v>91</v>
       </c>
       <c r="B515" s="34" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C515" s="34" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="D515" s="34"/>
       <c r="E515" s="34" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11789,14 +11789,14 @@
         <v>91</v>
       </c>
       <c r="B516" s="34" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C516" s="34" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D516" s="34"/>
       <c r="E516" s="34" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11804,14 +11804,14 @@
         <v>91</v>
       </c>
       <c r="B517" s="34" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="C517" s="34" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D517" s="34"/>
       <c r="E517" s="34" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11819,14 +11819,14 @@
         <v>91</v>
       </c>
       <c r="B518" s="34" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C518" s="34" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D518" s="34"/>
       <c r="E518" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11834,14 +11834,14 @@
         <v>91</v>
       </c>
       <c r="B519" s="34" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C519" s="34" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D519" s="34"/>
       <c r="E519" s="34" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11849,14 +11849,14 @@
         <v>91</v>
       </c>
       <c r="B520" s="34" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="C520" s="34" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D520" s="34"/>
       <c r="E520" s="34" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11864,14 +11864,14 @@
         <v>91</v>
       </c>
       <c r="B521" s="34" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C521" s="34" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D521" s="34"/>
       <c r="E521" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11879,14 +11879,14 @@
         <v>91</v>
       </c>
       <c r="B522" s="34" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C522" s="34" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D522" s="34"/>
       <c r="E522" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -11894,14 +11894,14 @@
         <v>91</v>
       </c>
       <c r="B523" s="34" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="C523" s="34" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D523" s="34"/>
       <c r="E523" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -11909,14 +11909,14 @@
         <v>91</v>
       </c>
       <c r="B524" s="34" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C524" s="34" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D524" s="34"/>
       <c r="E524" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -11924,14 +11924,14 @@
         <v>91</v>
       </c>
       <c r="B525" s="34" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="C525" s="34" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D525" s="34"/>
       <c r="E525" s="34" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11939,14 +11939,14 @@
         <v>91</v>
       </c>
       <c r="B526" s="34" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="C526" s="34" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D526" s="34"/>
       <c r="E526" s="34" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -11954,14 +11954,14 @@
         <v>91</v>
       </c>
       <c r="B527" s="34" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C527" s="34" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D527" s="34"/>
       <c r="E527" s="34" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -11969,14 +11969,14 @@
         <v>91</v>
       </c>
       <c r="B528" s="34" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="C528" s="34" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D528" s="34"/>
       <c r="E528" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11984,14 +11984,14 @@
         <v>91</v>
       </c>
       <c r="B529" s="34" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C529" s="34" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D529" s="34"/>
       <c r="E529" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11999,14 +11999,14 @@
         <v>91</v>
       </c>
       <c r="B530" s="34" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="C530" s="34" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D530" s="34"/>
       <c r="E530" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12014,14 +12014,14 @@
         <v>91</v>
       </c>
       <c r="B531" s="34" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C531" s="34" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D531" s="34"/>
       <c r="E531" s="34" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12029,14 +12029,14 @@
         <v>91</v>
       </c>
       <c r="B532" s="34" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C532" s="34" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D532" s="34"/>
       <c r="E532" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12044,14 +12044,14 @@
         <v>91</v>
       </c>
       <c r="B533" s="34" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="C533" s="34" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D533" s="34"/>
       <c r="E533" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12059,14 +12059,14 @@
         <v>91</v>
       </c>
       <c r="B534" s="34" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C534" s="34" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D534" s="34"/>
       <c r="E534" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12074,14 +12074,14 @@
         <v>91</v>
       </c>
       <c r="B535" s="34" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C535" s="34" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D535" s="34"/>
       <c r="E535" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12089,14 +12089,14 @@
         <v>91</v>
       </c>
       <c r="B536" s="34" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="C536" s="34" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D536" s="34"/>
       <c r="E536" s="34" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12104,14 +12104,14 @@
         <v>91</v>
       </c>
       <c r="B537" s="34" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C537" s="34" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D537" s="34"/>
       <c r="E537" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12119,14 +12119,14 @@
         <v>91</v>
       </c>
       <c r="B538" s="35" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="C538" s="35" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D538" s="35"/>
       <c r="E538" s="35" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12134,14 +12134,14 @@
         <v>91</v>
       </c>
       <c r="B539" s="34" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C539" s="34" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D539" s="34"/>
       <c r="E539" s="34" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12149,14 +12149,14 @@
         <v>91</v>
       </c>
       <c r="B540" s="34" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="C540" s="34" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D540" s="34"/>
       <c r="E540" s="34" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12164,14 +12164,14 @@
         <v>91</v>
       </c>
       <c r="B541" s="34" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C541" s="34" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D541" s="34"/>
       <c r="E541" s="34" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12179,14 +12179,14 @@
         <v>91</v>
       </c>
       <c r="B542" s="34" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C542" s="34" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D542" s="34"/>
       <c r="E542" s="34" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12194,14 +12194,14 @@
         <v>91</v>
       </c>
       <c r="B543" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C543" s="34" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D543" s="34"/>
       <c r="E543" s="34" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12209,14 +12209,14 @@
         <v>91</v>
       </c>
       <c r="B544" s="34" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C544" s="34" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D544" s="34"/>
       <c r="E544" s="34" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12224,14 +12224,14 @@
         <v>91</v>
       </c>
       <c r="B545" s="34" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C545" s="34" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D545" s="34"/>
       <c r="E545" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12239,14 +12239,14 @@
         <v>91</v>
       </c>
       <c r="B546" s="34" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="C546" s="34" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D546" s="34"/>
       <c r="E546" s="34" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12254,14 +12254,14 @@
         <v>91</v>
       </c>
       <c r="B547" s="34" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C547" s="34" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D547" s="34"/>
       <c r="E547" s="34" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12269,14 +12269,14 @@
         <v>91</v>
       </c>
       <c r="B548" s="34" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C548" s="34" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="D548" s="34"/>
       <c r="E548" s="34" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12284,14 +12284,14 @@
         <v>91</v>
       </c>
       <c r="B549" s="34" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C549" s="34" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D549" s="34"/>
       <c r="E549" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12299,14 +12299,14 @@
         <v>91</v>
       </c>
       <c r="B550" s="34" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="C550" s="34" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D550" s="34"/>
       <c r="E550" s="34" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12314,14 +12314,14 @@
         <v>91</v>
       </c>
       <c r="B551" s="34" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C551" s="34" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D551" s="34"/>
       <c r="E551" s="34" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12329,14 +12329,14 @@
         <v>91</v>
       </c>
       <c r="B552" s="34" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="C552" s="34" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D552" s="34"/>
       <c r="E552" s="34" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12344,14 +12344,14 @@
         <v>91</v>
       </c>
       <c r="B553" s="34" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C553" s="34" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D553" s="34"/>
       <c r="E553" s="34" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12359,14 +12359,14 @@
         <v>91</v>
       </c>
       <c r="B554" s="34" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C554" s="34" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D554" s="34"/>
       <c r="E554" s="34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12374,14 +12374,14 @@
         <v>91</v>
       </c>
       <c r="B555" s="34" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C555" s="34" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D555" s="34"/>
       <c r="E555" s="34" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12389,14 +12389,14 @@
         <v>91</v>
       </c>
       <c r="B556" s="34" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C556" s="34" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D556" s="34"/>
       <c r="E556" s="34" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12404,14 +12404,14 @@
         <v>91</v>
       </c>
       <c r="B557" s="34" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C557" s="34" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D557" s="34"/>
       <c r="E557" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12419,14 +12419,14 @@
         <v>91</v>
       </c>
       <c r="B558" s="34" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C558" s="34" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D558" s="34"/>
       <c r="E558" s="34" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12434,14 +12434,14 @@
         <v>91</v>
       </c>
       <c r="B559" s="34" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C559" s="34" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D559" s="34"/>
       <c r="E559" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12449,14 +12449,14 @@
         <v>91</v>
       </c>
       <c r="B560" s="34" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="C560" s="34" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="D560" s="34"/>
       <c r="E560" s="34" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12464,14 +12464,14 @@
         <v>91</v>
       </c>
       <c r="B561" s="34" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C561" s="34" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D561" s="34"/>
       <c r="E561" s="34" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12479,14 +12479,14 @@
         <v>91</v>
       </c>
       <c r="B562" s="34" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C562" s="34" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D562" s="34"/>
       <c r="E562" s="34" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12494,14 +12494,14 @@
         <v>91</v>
       </c>
       <c r="B563" s="34" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="C563" s="34" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="D563" s="34"/>
       <c r="E563" s="34" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12509,14 +12509,14 @@
         <v>91</v>
       </c>
       <c r="B564" s="34" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C564" s="34" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D564" s="34"/>
       <c r="E564" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12524,14 +12524,14 @@
         <v>91</v>
       </c>
       <c r="B565" s="34" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C565" s="34" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D565" s="34"/>
       <c r="E565" s="34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12539,14 +12539,14 @@
         <v>91</v>
       </c>
       <c r="B566" s="34" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C566" s="34" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D566" s="34"/>
       <c r="E566" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12554,14 +12554,14 @@
         <v>91</v>
       </c>
       <c r="B567" s="34" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C567" s="34" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="D567" s="34"/>
       <c r="E567" s="34" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12569,14 +12569,14 @@
         <v>91</v>
       </c>
       <c r="B568" s="34" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C568" s="34" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D568" s="34"/>
       <c r="E568" s="34" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12584,14 +12584,14 @@
         <v>91</v>
       </c>
       <c r="B569" s="34" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="C569" s="34" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D569" s="34"/>
       <c r="E569" s="34" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12599,14 +12599,14 @@
         <v>91</v>
       </c>
       <c r="B570" s="34" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C570" s="34" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="D570" s="34"/>
       <c r="E570" s="34" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12614,14 +12614,14 @@
         <v>91</v>
       </c>
       <c r="B571" s="34" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="C571" s="34" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D571" s="34"/>
       <c r="E571" s="34" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12629,14 +12629,14 @@
         <v>91</v>
       </c>
       <c r="B572" s="34" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C572" s="34" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D572" s="34"/>
       <c r="E572" s="34" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12644,14 +12644,14 @@
         <v>91</v>
       </c>
       <c r="B573" s="34" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C573" s="34" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D573" s="34"/>
       <c r="E573" s="34" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12659,14 +12659,14 @@
         <v>91</v>
       </c>
       <c r="B574" s="34" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="C574" s="34" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D574" s="34"/>
       <c r="E574" s="34" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12674,14 +12674,14 @@
         <v>91</v>
       </c>
       <c r="B575" s="34" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="C575" s="34" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="D575" s="34"/>
       <c r="E575" s="34" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12689,14 +12689,14 @@
         <v>91</v>
       </c>
       <c r="B576" s="34" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C576" s="34" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D576" s="34"/>
       <c r="E576" s="34" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B2" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C2">
         <v>20210610</v>

--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F410D4E-71E7-4B1B-B3F7-27127E5C7292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E645CD99-02B9-465E-B3D4-E560748F5F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2413,15 +2413,9 @@
     <t>h_add_more_child</t>
   </si>
   <si>
-    <t>3. Ethiopia – Reassessment Household Form V4</t>
-  </si>
-  <si>
     <t>selected(${h_add_more_child}, ‘1.Yes’)</t>
   </si>
   <si>
-    <t>eth_sch_sth_remaping_3_household_202105_v4</t>
-  </si>
-  <si>
     <t>label::English</t>
   </si>
   <si>
@@ -2489,6 +2483,12 @@
   </si>
   <si>
     <t>selected(${sample}, ‘2.No’)</t>
+  </si>
+  <si>
+    <t>3. Ethiopia – Reassessment Household Form V4.1</t>
+  </si>
+  <si>
+    <t>eth_sch_sth_remaping_3_household_202105_v4_1</t>
   </si>
 </sst>
 </file>
@@ -3353,11 +3353,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
@@ -3383,10 +3383,10 @@
         <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>797</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>799</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>76</v>
@@ -3395,7 +3395,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>78</v>
@@ -3407,7 +3407,7 @@
         <v>80</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>81</v>
@@ -4672,7 +4672,7 @@
         <v>786</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>59</v>
@@ -4706,7 +4706,7 @@
         <v>789</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="8" customFormat="1"/>
@@ -4715,7 +4715,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>60</v>
@@ -4732,7 +4732,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>765</v>
@@ -4749,7 +4749,7 @@
         <v>9</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>766</v>
@@ -4772,7 +4772,7 @@
         <v>276</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>767</v>
@@ -4789,7 +4789,7 @@
         <v>102</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>61</v>
@@ -4806,7 +4806,7 @@
         <v>102</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>62</v>
@@ -4823,7 +4823,7 @@
         <v>226</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>63</v>
@@ -4840,7 +4840,7 @@
         <v>278</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>64</v>
@@ -4857,13 +4857,13 @@
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>763</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4871,7 +4871,7 @@
         <v>281</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>65</v>
@@ -4889,7 +4889,7 @@
         <v>282</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>66</v>
@@ -4906,13 +4906,13 @@
         <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>768</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>84</v>
@@ -4923,7 +4923,7 @@
         <v>285</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>67</v>
@@ -4954,7 +4954,7 @@
         <v>102</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>780</v>
@@ -4974,13 +4974,13 @@
         <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>764</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>84</v>
@@ -5212,7 +5212,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>89</v>
@@ -12712,8 +12712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -12738,10 +12738,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="B2" t="s">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="C2">
         <v>20210610</v>
@@ -12756,23 +12756,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B9F1557405F204EB54E5AA6C10F8240" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61e48df3bcdbeb416b226b9b6814dc2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xmlns:ns3="1c1dd18d-f55f-49c2-86f0-6528711f8c6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba3abe0560f56dcbf46679ef0c9a9535" ns2:_="" ns3:_="">
     <xsd:import namespace="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
@@ -12995,25 +12978,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Flow_SignoffStatus xmlns="4c7bd1d5-db07-43d4-85bd-97d5418eebc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5F18790-DEA1-4656-A2CA-03E2CC020960}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13030,4 +13012,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{346E3B8A-3A25-4B20-8DFD-2CAF64F2B896}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE61B87F-E325-4836-8DDD-7A477F4DA540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4c7bd1d5-db07-43d4-85bd-97d5418eebc6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Ethiopia/eth_sch_sth_remaping_3_household_202105.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Ethiopia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\Ethiopia\Formulaires_27.05.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E645CD99-02B9-465E-B3D4-E560748F5F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2453" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="821">
   <si>
     <t>type</t>
   </si>
@@ -1015,18 +1014,6 @@
     <t>h_nbr_members</t>
   </si>
   <si>
-    <t>h_nbr_psac_girls</t>
-  </si>
-  <si>
-    <t>h_nbr_psac_boys</t>
-  </si>
-  <si>
-    <t>h_nbr_sac_girls</t>
-  </si>
-  <si>
-    <t>h_nbr_sac_boys</t>
-  </si>
-  <si>
     <t>h_nbr_adult_women</t>
   </si>
   <si>
@@ -2431,6 +2418,18 @@
     <t>h_sac</t>
   </si>
   <si>
+    <t>h_nbr_pgirls</t>
+  </si>
+  <si>
+    <t>h_nbr_pboys</t>
+  </si>
+  <si>
+    <t>h_nbr_girls</t>
+  </si>
+  <si>
+    <t>h_nbr_boys</t>
+  </si>
+  <si>
     <t>pd_id</t>
   </si>
   <si>
@@ -2485,16 +2484,19 @@
     <t>selected(${sample}, ‘2.No’)</t>
   </si>
   <si>
+    <t>Malka Karro</t>
+  </si>
+  <si>
     <t>3. Ethiopia – Reassessment Household Form V4.1</t>
   </si>
   <si>
-    <t>eth_sch_sth_remaping_3_household_202105_v4_1</t>
+    <t>eth_sch_sth_remaping_3_household_202105_v4.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -2766,9 +2768,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="35">
     <dxf>
@@ -3350,32 +3352,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.5859375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.41015625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="73.87890625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="43.29296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.41015625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.41015625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.41015625" style="1" customWidth="1"/>
-    <col min="12" max="14" width="14.41015625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="54.29296875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1171875" style="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="73.85546875" style="1" customWidth="1"/>
+    <col min="4" max="7" width="43.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="14.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="54.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.35">
+    <row r="1" spans="1:15" ht="31.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3383,10 +3385,10 @@
         <v>75</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>76</v>
@@ -3395,7 +3397,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>78</v>
@@ -3407,7 +3409,7 @@
         <v>80</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>81</v>
@@ -3416,7 +3418,7 @@
         <v>82</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="O1" s="7"/>
     </row>
@@ -3428,7 +3430,7 @@
         <v>300</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>84</v>
@@ -3442,7 +3444,7 @@
         <v>301</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>302</v>
@@ -3487,7 +3489,7 @@
         <v>299</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>84</v>
@@ -3583,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>10</v>
@@ -3597,19 +3599,19 @@
         <v>4</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I13" s="32" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>84</v>
@@ -3623,19 +3625,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I14" s="32" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>84</v>
@@ -3680,10 +3682,10 @@
         <v>319</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>84</v>
@@ -3700,7 +3702,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>84</v>
@@ -3717,7 +3719,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>84</v>
@@ -3734,7 +3736,7 @@
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>84</v>
@@ -3745,13 +3747,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>84</v>
@@ -3816,13 +3818,13 @@
         <v>20</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>323</v>
@@ -3831,7 +3833,7 @@
         <v>84</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:12" s="32" customFormat="1">
@@ -3859,7 +3861,7 @@
         <v>9</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>328</v>
+        <v>796</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>23</v>
@@ -3876,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>329</v>
+        <v>797</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>24</v>
@@ -3893,7 +3895,7 @@
         <v>9</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>330</v>
+        <v>798</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>25</v>
@@ -3910,7 +3912,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>331</v>
+        <v>799</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>26</v>
@@ -3927,7 +3929,7 @@
         <v>9</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>27</v>
@@ -3944,7 +3946,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C33" s="32" t="s">
         <v>28</v>
@@ -3975,7 +3977,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>31</v>
@@ -3992,7 +3994,7 @@
         <v>102</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -4009,7 +4011,7 @@
         <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>33</v>
@@ -4026,7 +4028,7 @@
         <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>34</v>
@@ -4043,7 +4045,7 @@
         <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>35</v>
@@ -4060,7 +4062,7 @@
         <v>102</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>36</v>
@@ -4077,7 +4079,7 @@
         <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>37</v>
@@ -4094,7 +4096,7 @@
         <v>102</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>38</v>
@@ -4111,7 +4113,7 @@
         <v>102</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>39</v>
@@ -4128,7 +4130,7 @@
         <v>120</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>40</v>
@@ -4145,13 +4147,13 @@
         <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>84</v>
@@ -4162,7 +4164,7 @@
         <v>123</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>41</v>
@@ -4179,13 +4181,13 @@
         <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>84</v>
@@ -4196,7 +4198,7 @@
         <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>42</v>
@@ -4213,13 +4215,13 @@
         <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>84</v>
@@ -4230,7 +4232,7 @@
         <v>131</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>43</v>
@@ -4247,13 +4249,13 @@
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>84</v>
@@ -4264,7 +4266,7 @@
         <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>44</v>
@@ -4281,13 +4283,13 @@
         <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>84</v>
@@ -4298,7 +4300,7 @@
         <v>137</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>45</v>
@@ -4315,13 +4317,13 @@
         <v>4</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>84</v>
@@ -4346,7 +4348,7 @@
         <v>140</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>48</v>
@@ -4363,13 +4365,13 @@
         <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>84</v>
@@ -4380,7 +4382,7 @@
         <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>50</v>
@@ -4397,13 +4399,13 @@
         <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>84</v>
@@ -4414,7 +4416,7 @@
         <v>160</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>52</v>
@@ -4431,7 +4433,7 @@
         <v>165</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>53</v>
@@ -4448,7 +4450,7 @@
         <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>54</v>
@@ -4465,13 +4467,13 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>55</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>84</v>
@@ -4482,7 +4484,7 @@
         <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>56</v>
@@ -4499,13 +4501,13 @@
         <v>4</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C68" s="32" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="H68" s="32" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>84</v>
@@ -4516,13 +4518,13 @@
         <v>102</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="H69" s="32" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>84</v>
@@ -4533,13 +4535,13 @@
         <v>192</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H70" s="32" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>84</v>
@@ -4550,13 +4552,13 @@
         <v>194</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="H71" s="32" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>84</v>
@@ -4567,13 +4569,13 @@
         <v>198</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="H72" s="32" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>84</v>
@@ -4584,13 +4586,13 @@
         <v>4</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="H73" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>84</v>
@@ -4601,7 +4603,7 @@
         <v>205</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>57</v>
@@ -4618,13 +4620,13 @@
         <v>4</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>84</v>
@@ -4635,10 +4637,10 @@
         <v>213</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>58</v>
@@ -4655,10 +4657,10 @@
         <v>217</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>323</v>
@@ -4669,10 +4671,10 @@
     </row>
     <row r="80" spans="1:10" s="8" customFormat="1">
       <c r="A80" s="8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>59</v>
@@ -4686,10 +4688,10 @@
         <v>102</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>84</v>
@@ -4697,16 +4699,16 @@
     </row>
     <row r="82" spans="1:10" s="8" customFormat="1">
       <c r="A82" s="8" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B82" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="H82" s="8" t="s">
         <v>790</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="8" customFormat="1"/>
@@ -4735,7 +4737,7 @@
         <v>801</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>323</v>
@@ -4752,7 +4754,7 @@
         <v>802</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>221</v>
@@ -4775,7 +4777,7 @@
         <v>803</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>323</v>
@@ -4860,7 +4862,7 @@
         <v>808</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>809</v>
@@ -4909,7 +4911,7 @@
         <v>812</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>813</v>
@@ -4957,7 +4959,7 @@
         <v>815</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>69</v>
@@ -4977,7 +4979,7 @@
         <v>816</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>817</v>
@@ -4988,12 +4990,12 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -5040,7 +5042,7 @@
         <v>72</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
   </sheetData>
@@ -5189,19 +5191,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A516" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A523" sqref="A523:XFD523"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.87890625" customWidth="1"/>
-    <col min="3" max="3" width="49.87890625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -5212,7 +5214,7 @@
         <v>75</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>89</v>
@@ -6806,7 +6808,7 @@
       <c r="B161" s="14"/>
       <c r="C161" s="24"/>
     </row>
-    <row r="162" spans="1:3" ht="15.7">
+    <row r="162" spans="1:3" ht="15.75">
       <c r="A162" s="10" t="s">
         <v>244</v>
       </c>
@@ -6817,7 +6819,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.7">
+    <row r="163" spans="1:3" ht="15.75">
       <c r="A163" s="10" t="s">
         <v>244</v>
       </c>
@@ -6828,7 +6830,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.7">
+    <row r="164" spans="1:3" ht="15.75">
       <c r="A164" s="10" t="s">
         <v>244</v>
       </c>
@@ -6839,7 +6841,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.7">
+    <row r="165" spans="1:3" ht="15.75">
       <c r="A165" s="10" t="s">
         <v>244</v>
       </c>
@@ -6850,7 +6852,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.7">
+    <row r="166" spans="1:3" ht="15.75">
       <c r="A166" s="10" t="s">
         <v>244</v>
       </c>
@@ -6861,7 +6863,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.7">
+    <row r="167" spans="1:3" ht="15.75">
       <c r="A167" s="10" t="s">
         <v>244</v>
       </c>
@@ -6872,7 +6874,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.7">
+    <row r="168" spans="1:3" ht="15.75">
       <c r="A168" s="10" t="s">
         <v>244</v>
       </c>
@@ -6883,7 +6885,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.7">
+    <row r="169" spans="1:3" ht="15.75">
       <c r="A169" s="10" t="s">
         <v>244</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.7">
+    <row r="170" spans="1:3" ht="15.75">
       <c r="A170" s="10" t="s">
         <v>244</v>
       </c>
@@ -6905,7 +6907,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.7">
+    <row r="171" spans="1:3" ht="15.75">
       <c r="A171" s="10" t="s">
         <v>244</v>
       </c>
@@ -6916,7 +6918,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.7">
+    <row r="172" spans="1:3" ht="15.75">
       <c r="A172" s="10" t="s">
         <v>244</v>
       </c>
@@ -6927,7 +6929,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.7">
+    <row r="173" spans="1:3" ht="15.75">
       <c r="A173" s="10" t="s">
         <v>244</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.7">
+    <row r="175" spans="1:3" ht="15.75">
       <c r="A175" s="10" t="s">
         <v>244</v>
       </c>
@@ -7161,7 +7163,7 @@
         <v>280</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C196" s="25" t="s">
         <v>241</v>
@@ -7172,7 +7174,7 @@
         <v>280</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C197" s="24" t="s">
         <v>242</v>
@@ -7183,7 +7185,7 @@
         <v>280</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C198" s="23" t="s">
         <v>243</v>
@@ -7194,7 +7196,7 @@
       <c r="B199" s="14"/>
       <c r="C199" s="24"/>
     </row>
-    <row r="200" spans="1:3" ht="15.7">
+    <row r="200" spans="1:3" ht="15.75">
       <c r="A200" s="10" t="s">
         <v>283</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.7">
+    <row r="201" spans="1:3" ht="15.75">
       <c r="A201" s="10" t="s">
         <v>283</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.7">
+    <row r="202" spans="1:3" ht="15.75">
       <c r="A202" s="10" t="s">
         <v>283</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.7">
+    <row r="203" spans="1:3" ht="15.75">
       <c r="A203" s="10" t="s">
         <v>283</v>
       </c>
@@ -7238,7 +7240,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.7">
+    <row r="204" spans="1:3" ht="15.75">
       <c r="A204" s="10" t="s">
         <v>283</v>
       </c>
@@ -7249,7 +7251,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.7">
+    <row r="205" spans="1:3" ht="15.75">
       <c r="A205" s="10" t="s">
         <v>283</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.7">
+    <row r="206" spans="1:3" ht="15.75">
       <c r="A206" s="10" t="s">
         <v>283</v>
       </c>
@@ -7271,7 +7273,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.7">
+    <row r="207" spans="1:3" ht="15.75">
       <c r="A207" s="10" t="s">
         <v>283</v>
       </c>
@@ -7282,7 +7284,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.7">
+    <row r="208" spans="1:3" ht="15.75">
       <c r="A208" s="10" t="s">
         <v>283</v>
       </c>
@@ -7293,7 +7295,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.7">
+    <row r="209" spans="1:5" ht="15.75">
       <c r="A209" s="10" t="s">
         <v>283</v>
       </c>
@@ -7304,7 +7306,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.7">
+    <row r="210" spans="1:5" ht="15.75">
       <c r="A210" s="10" t="s">
         <v>283</v>
       </c>
@@ -7315,7 +7317,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.7">
+    <row r="211" spans="1:5" ht="15.75">
       <c r="A211" s="10" t="s">
         <v>283</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.7">
+    <row r="212" spans="1:5" ht="15.75">
       <c r="A212" s="10" t="s">
         <v>283</v>
       </c>
@@ -7418,10 +7420,10 @@
         <v>89</v>
       </c>
       <c r="B223" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C223" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D223" s="34"/>
       <c r="E223" s="34"/>
@@ -7431,10 +7433,10 @@
         <v>89</v>
       </c>
       <c r="B224" s="34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C224" s="34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D224" s="34"/>
       <c r="E224" s="34"/>
@@ -7444,10 +7446,10 @@
         <v>89</v>
       </c>
       <c r="B225" s="34" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C225" s="34" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D225" s="34"/>
       <c r="E225" s="34"/>
@@ -7457,10 +7459,10 @@
         <v>89</v>
       </c>
       <c r="B226" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C226" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D226" s="34"/>
       <c r="E226" s="34"/>
@@ -7477,13 +7479,13 @@
         <v>90</v>
       </c>
       <c r="B228" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C228" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D228" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E228" s="34"/>
     </row>
@@ -7492,13 +7494,13 @@
         <v>90</v>
       </c>
       <c r="B229" s="34" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C229" s="34" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D229" s="34" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E229" s="34"/>
     </row>
@@ -7507,13 +7509,13 @@
         <v>90</v>
       </c>
       <c r="B230" s="34" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C230" s="34" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E230" s="34"/>
     </row>
@@ -7522,13 +7524,13 @@
         <v>90</v>
       </c>
       <c r="B231" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E231" s="34"/>
     </row>
@@ -7537,13 +7539,13 @@
         <v>90</v>
       </c>
       <c r="B232" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C232" s="34" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E232" s="34"/>
     </row>
@@ -7552,13 +7554,13 @@
         <v>90</v>
       </c>
       <c r="B233" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C233" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D233" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E233" s="34"/>
     </row>
@@ -7567,13 +7569,13 @@
         <v>90</v>
       </c>
       <c r="B234" s="34" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C234" s="34" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D234" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E234" s="34"/>
     </row>
@@ -7582,13 +7584,13 @@
         <v>90</v>
       </c>
       <c r="B235" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C235" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E235" s="34"/>
     </row>
@@ -7597,13 +7599,13 @@
         <v>90</v>
       </c>
       <c r="B236" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C236" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E236" s="34"/>
     </row>
@@ -7612,13 +7614,13 @@
         <v>90</v>
       </c>
       <c r="B237" s="34" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C237" s="34" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D237" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E237" s="34"/>
     </row>
@@ -7627,13 +7629,13 @@
         <v>90</v>
       </c>
       <c r="B238" s="34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C238" s="34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D238" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E238" s="34"/>
     </row>
@@ -7642,13 +7644,13 @@
         <v>90</v>
       </c>
       <c r="B239" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E239" s="34"/>
     </row>
@@ -7657,13 +7659,13 @@
         <v>90</v>
       </c>
       <c r="B240" s="34" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C240" s="34" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D240" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E240" s="34"/>
     </row>
@@ -7672,13 +7674,13 @@
         <v>90</v>
       </c>
       <c r="B241" s="34" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C241" s="34" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D241" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E241" s="34"/>
     </row>
@@ -7687,13 +7689,13 @@
         <v>90</v>
       </c>
       <c r="B242" s="34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C242" s="34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D242" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E242" s="34"/>
     </row>
@@ -7702,13 +7704,13 @@
         <v>90</v>
       </c>
       <c r="B243" s="34" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C243" s="34" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E243" s="34"/>
     </row>
@@ -7717,13 +7719,13 @@
         <v>90</v>
       </c>
       <c r="B244" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C244" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E244" s="34"/>
     </row>
@@ -7732,13 +7734,13 @@
         <v>90</v>
       </c>
       <c r="B245" s="34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C245" s="34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E245" s="34"/>
     </row>
@@ -7747,13 +7749,13 @@
         <v>90</v>
       </c>
       <c r="B246" s="34" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C246" s="34" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E246" s="34"/>
     </row>
@@ -7762,13 +7764,13 @@
         <v>90</v>
       </c>
       <c r="B247" s="34" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C247" s="34" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D247" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E247" s="34"/>
     </row>
@@ -7777,13 +7779,13 @@
         <v>90</v>
       </c>
       <c r="B248" s="34" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C248" s="34" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D248" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E248" s="34"/>
     </row>
@@ -7792,13 +7794,13 @@
         <v>90</v>
       </c>
       <c r="B249" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C249" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D249" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E249" s="34"/>
     </row>
@@ -7807,13 +7809,13 @@
         <v>90</v>
       </c>
       <c r="B250" s="34" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C250" s="34" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D250" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E250" s="34"/>
     </row>
@@ -7822,13 +7824,13 @@
         <v>90</v>
       </c>
       <c r="B251" s="34" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C251" s="34" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D251" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E251" s="34"/>
     </row>
@@ -7837,13 +7839,13 @@
         <v>90</v>
       </c>
       <c r="B252" s="34" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C252" s="34" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D252" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E252" s="34"/>
     </row>
@@ -7852,13 +7854,13 @@
         <v>90</v>
       </c>
       <c r="B253" s="34" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C253" s="34" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D253" s="34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E253" s="34"/>
     </row>
@@ -7867,13 +7869,13 @@
         <v>90</v>
       </c>
       <c r="B254" s="34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C254" s="34" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D254" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E254" s="34"/>
     </row>
@@ -7882,13 +7884,13 @@
         <v>90</v>
       </c>
       <c r="B255" s="34" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C255" s="34" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E255" s="34"/>
     </row>
@@ -7897,13 +7899,13 @@
         <v>90</v>
       </c>
       <c r="B256" s="34" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C256" s="34" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D256" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E256" s="34"/>
     </row>
@@ -7912,13 +7914,13 @@
         <v>90</v>
       </c>
       <c r="B257" s="34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C257" s="34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D257" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E257" s="34"/>
     </row>
@@ -7927,13 +7929,13 @@
         <v>90</v>
       </c>
       <c r="B258" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C258" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D258" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E258" s="34"/>
     </row>
@@ -7942,13 +7944,13 @@
         <v>90</v>
       </c>
       <c r="B259" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C259" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D259" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E259" s="34"/>
     </row>
@@ -7957,13 +7959,13 @@
         <v>90</v>
       </c>
       <c r="B260" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C260" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D260" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E260" s="34"/>
     </row>
@@ -7972,13 +7974,13 @@
         <v>90</v>
       </c>
       <c r="B261" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C261" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D261" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E261" s="34"/>
     </row>
@@ -7987,13 +7989,13 @@
         <v>90</v>
       </c>
       <c r="B262" s="34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C262" s="34" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D262" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E262" s="34"/>
     </row>
@@ -8002,13 +8004,13 @@
         <v>90</v>
       </c>
       <c r="B263" s="34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C263" s="34" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D263" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E263" s="34"/>
     </row>
@@ -8017,13 +8019,13 @@
         <v>90</v>
       </c>
       <c r="B264" s="34" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C264" s="34" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D264" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E264" s="34"/>
     </row>
@@ -8032,13 +8034,13 @@
         <v>90</v>
       </c>
       <c r="B265" s="34" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C265" s="34" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D265" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E265" s="34"/>
     </row>
@@ -8047,13 +8049,13 @@
         <v>90</v>
       </c>
       <c r="B266" s="34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C266" s="34" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D266" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E266" s="34"/>
     </row>
@@ -8062,13 +8064,13 @@
         <v>90</v>
       </c>
       <c r="B267" s="34" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C267" s="34" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D267" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E267" s="34"/>
     </row>
@@ -8077,13 +8079,13 @@
         <v>90</v>
       </c>
       <c r="B268" s="34" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C268" s="34" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D268" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E268" s="34"/>
     </row>
@@ -8092,13 +8094,13 @@
         <v>90</v>
       </c>
       <c r="B269" s="34" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C269" s="34" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D269" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E269" s="34"/>
     </row>
@@ -8107,13 +8109,13 @@
         <v>90</v>
       </c>
       <c r="B270" s="34" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C270" s="34" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D270" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E270" s="34"/>
     </row>
@@ -8122,13 +8124,13 @@
         <v>90</v>
       </c>
       <c r="B271" s="34" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C271" s="34" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D271" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E271" s="34"/>
     </row>
@@ -8137,13 +8139,13 @@
         <v>90</v>
       </c>
       <c r="B272" s="34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C272" s="34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D272" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E272" s="34"/>
     </row>
@@ -8152,13 +8154,13 @@
         <v>90</v>
       </c>
       <c r="B273" s="34" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C273" s="34" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D273" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E273" s="34"/>
     </row>
@@ -8167,13 +8169,13 @@
         <v>90</v>
       </c>
       <c r="B274" s="34" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C274" s="34" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D274" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E274" s="34"/>
     </row>
@@ -8182,13 +8184,13 @@
         <v>90</v>
       </c>
       <c r="B275" s="34" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C275" s="34" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D275" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E275" s="34"/>
     </row>
@@ -8197,13 +8199,13 @@
         <v>90</v>
       </c>
       <c r="B276" s="34" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C276" s="34" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D276" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E276" s="34"/>
     </row>
@@ -8212,13 +8214,13 @@
         <v>90</v>
       </c>
       <c r="B277" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C277" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D277" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E277" s="34"/>
     </row>
@@ -8227,13 +8229,13 @@
         <v>90</v>
       </c>
       <c r="B278" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C278" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E278" s="34"/>
     </row>
@@ -8242,13 +8244,13 @@
         <v>90</v>
       </c>
       <c r="B279" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C279" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E279" s="34"/>
     </row>
@@ -8257,13 +8259,13 @@
         <v>90</v>
       </c>
       <c r="B280" s="34" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C280" s="34" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E280" s="34"/>
     </row>
@@ -8272,13 +8274,13 @@
         <v>90</v>
       </c>
       <c r="B281" s="34" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C281" s="34" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E281" s="34"/>
     </row>
@@ -8287,13 +8289,13 @@
         <v>90</v>
       </c>
       <c r="B282" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C282" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E282" s="34"/>
     </row>
@@ -8302,13 +8304,13 @@
         <v>90</v>
       </c>
       <c r="B283" s="34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C283" s="34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E283" s="34"/>
     </row>
@@ -8317,13 +8319,13 @@
         <v>90</v>
       </c>
       <c r="B284" s="34" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C284" s="34" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E284" s="34"/>
     </row>
@@ -8332,13 +8334,13 @@
         <v>90</v>
       </c>
       <c r="B285" s="34" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C285" s="34" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E285" s="34"/>
     </row>
@@ -8347,13 +8349,13 @@
         <v>90</v>
       </c>
       <c r="B286" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C286" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E286" s="34"/>
     </row>
@@ -8362,13 +8364,13 @@
         <v>90</v>
       </c>
       <c r="B287" s="34" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C287" s="34" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D287" s="34" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E287" s="34"/>
     </row>
@@ -8377,13 +8379,13 @@
         <v>90</v>
       </c>
       <c r="B288" s="34" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C288" s="34" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D288" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E288" s="34"/>
     </row>
@@ -8392,13 +8394,13 @@
         <v>90</v>
       </c>
       <c r="B289" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C289" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D289" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E289" s="34"/>
     </row>
@@ -8407,13 +8409,13 @@
         <v>90</v>
       </c>
       <c r="B290" s="34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C290" s="34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D290" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E290" s="34"/>
     </row>
@@ -8422,13 +8424,13 @@
         <v>90</v>
       </c>
       <c r="B291" s="34" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C291" s="34" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D291" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E291" s="34"/>
     </row>
@@ -8437,13 +8439,13 @@
         <v>90</v>
       </c>
       <c r="B292" s="34" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C292" s="34" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D292" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E292" s="34"/>
     </row>
@@ -8452,13 +8454,13 @@
         <v>90</v>
       </c>
       <c r="B293" s="34" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C293" s="34" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D293" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E293" s="34"/>
     </row>
@@ -8467,13 +8469,13 @@
         <v>90</v>
       </c>
       <c r="B294" s="34" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C294" s="34" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D294" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E294" s="34"/>
     </row>
@@ -8482,13 +8484,13 @@
         <v>90</v>
       </c>
       <c r="B295" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C295" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D295" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E295" s="34"/>
     </row>
@@ -8497,13 +8499,13 @@
         <v>90</v>
       </c>
       <c r="B296" s="34" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C296" s="34" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D296" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E296" s="34"/>
     </row>
@@ -8512,13 +8514,13 @@
         <v>90</v>
       </c>
       <c r="B297" s="34" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C297" s="34" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D297" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E297" s="34"/>
     </row>
@@ -8527,13 +8529,13 @@
         <v>90</v>
       </c>
       <c r="B298" s="34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C298" s="34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D298" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E298" s="34"/>
     </row>
@@ -8542,13 +8544,13 @@
         <v>90</v>
       </c>
       <c r="B299" s="34" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C299" s="34" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D299" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E299" s="34"/>
     </row>
@@ -8557,13 +8559,13 @@
         <v>90</v>
       </c>
       <c r="B300" s="34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C300" s="34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D300" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E300" s="34"/>
     </row>
@@ -8572,13 +8574,13 @@
         <v>90</v>
       </c>
       <c r="B301" s="34" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C301" s="34" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D301" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E301" s="34"/>
     </row>
@@ -8587,13 +8589,13 @@
         <v>90</v>
       </c>
       <c r="B302" s="34" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C302" s="34" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E302" s="34"/>
     </row>
@@ -8602,13 +8604,13 @@
         <v>90</v>
       </c>
       <c r="B303" s="34" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C303" s="34" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D303" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E303" s="34"/>
     </row>
@@ -8617,13 +8619,13 @@
         <v>90</v>
       </c>
       <c r="B304" s="34" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C304" s="34" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D304" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E304" s="34"/>
     </row>
@@ -8632,13 +8634,13 @@
         <v>90</v>
       </c>
       <c r="B305" s="34" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C305" s="34" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E305" s="34"/>
     </row>
@@ -8647,13 +8649,13 @@
         <v>90</v>
       </c>
       <c r="B306" s="34" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C306" s="34" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D306" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E306" s="34"/>
     </row>
@@ -8662,13 +8664,13 @@
         <v>90</v>
       </c>
       <c r="B307" s="34" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C307" s="34" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D307" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E307" s="34"/>
     </row>
@@ -8677,13 +8679,13 @@
         <v>90</v>
       </c>
       <c r="B308" s="34" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C308" s="34" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E308" s="34"/>
     </row>
@@ -8692,13 +8694,13 @@
         <v>90</v>
       </c>
       <c r="B309" s="34" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C309" s="34" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E309" s="34"/>
     </row>
@@ -8707,13 +8709,13 @@
         <v>90</v>
       </c>
       <c r="B310" s="34" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C310" s="34" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E310" s="34"/>
     </row>
@@ -8722,13 +8724,13 @@
         <v>90</v>
       </c>
       <c r="B311" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C311" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D311" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E311" s="34"/>
     </row>
@@ -8737,13 +8739,13 @@
         <v>90</v>
       </c>
       <c r="B312" s="34" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C312" s="34" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E312" s="34"/>
     </row>
@@ -8752,13 +8754,13 @@
         <v>90</v>
       </c>
       <c r="B313" s="34" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C313" s="34" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D313" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E313" s="34"/>
     </row>
@@ -8767,13 +8769,13 @@
         <v>90</v>
       </c>
       <c r="B314" s="34" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C314" s="34" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E314" s="34"/>
     </row>
@@ -8782,13 +8784,13 @@
         <v>90</v>
       </c>
       <c r="B315" s="34" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C315" s="34" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D315" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E315" s="34"/>
     </row>
@@ -8797,13 +8799,13 @@
         <v>90</v>
       </c>
       <c r="B316" s="34" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C316" s="34" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E316" s="34"/>
     </row>
@@ -8812,13 +8814,13 @@
         <v>90</v>
       </c>
       <c r="B317" s="34" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C317" s="34" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D317" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E317" s="34"/>
     </row>
@@ -8827,13 +8829,13 @@
         <v>90</v>
       </c>
       <c r="B318" s="34" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C318" s="34" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E318" s="34"/>
     </row>
@@ -8842,13 +8844,13 @@
         <v>90</v>
       </c>
       <c r="B319" s="34" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C319" s="34" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E319" s="34"/>
     </row>
@@ -8857,13 +8859,13 @@
         <v>90</v>
       </c>
       <c r="B320" s="34" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C320" s="34" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D320" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E320" s="34"/>
     </row>
@@ -8872,13 +8874,13 @@
         <v>90</v>
       </c>
       <c r="B321" s="34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C321" s="34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D321" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E321" s="34"/>
     </row>
@@ -8887,13 +8889,13 @@
         <v>90</v>
       </c>
       <c r="B322" s="34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C322" s="34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D322" s="34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E322" s="34"/>
     </row>
@@ -8902,13 +8904,13 @@
         <v>90</v>
       </c>
       <c r="B323" s="34" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C323" s="34" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D323" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E323" s="34"/>
     </row>
@@ -8917,13 +8919,13 @@
         <v>90</v>
       </c>
       <c r="B324" s="34" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C324" s="34" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D324" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E324" s="34"/>
     </row>
@@ -8932,13 +8934,13 @@
         <v>90</v>
       </c>
       <c r="B325" s="34" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C325" s="34" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D325" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E325" s="34"/>
     </row>
@@ -8947,13 +8949,13 @@
         <v>90</v>
       </c>
       <c r="B326" s="34" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C326" s="34" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D326" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E326" s="34"/>
     </row>
@@ -8962,13 +8964,13 @@
         <v>90</v>
       </c>
       <c r="B327" s="34" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C327" s="34" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D327" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E327" s="34"/>
     </row>
@@ -8977,13 +8979,13 @@
         <v>90</v>
       </c>
       <c r="B328" s="34" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C328" s="34" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D328" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E328" s="34"/>
     </row>
@@ -8992,13 +8994,13 @@
         <v>90</v>
       </c>
       <c r="B329" s="34" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C329" s="34" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D329" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E329" s="34"/>
     </row>
@@ -9007,13 +9009,13 @@
         <v>90</v>
       </c>
       <c r="B330" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C330" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D330" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E330" s="34"/>
     </row>
@@ -9022,13 +9024,13 @@
         <v>90</v>
       </c>
       <c r="B331" s="34" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C331" s="34" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D331" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E331" s="34"/>
     </row>
@@ -9037,13 +9039,13 @@
         <v>90</v>
       </c>
       <c r="B332" s="34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C332" s="34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D332" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E332" s="34"/>
     </row>
@@ -9052,13 +9054,13 @@
         <v>90</v>
       </c>
       <c r="B333" s="34" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C333" s="34" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D333" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E333" s="34"/>
     </row>
@@ -9067,13 +9069,13 @@
         <v>90</v>
       </c>
       <c r="B334" s="34" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C334" s="34" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D334" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E334" s="34"/>
     </row>
@@ -9082,13 +9084,13 @@
         <v>90</v>
       </c>
       <c r="B335" s="34" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C335" s="34" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D335" s="34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E335" s="34"/>
     </row>
@@ -9097,13 +9099,13 @@
         <v>90</v>
       </c>
       <c r="B336" s="34" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C336" s="34" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D336" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E336" s="34"/>
     </row>
@@ -9112,13 +9114,13 @@
         <v>90</v>
       </c>
       <c r="B337" s="34" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C337" s="34" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D337" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E337" s="34"/>
     </row>
@@ -9127,13 +9129,13 @@
         <v>90</v>
       </c>
       <c r="B338" s="34" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C338" s="34" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D338" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E338" s="34"/>
     </row>
@@ -9142,13 +9144,13 @@
         <v>90</v>
       </c>
       <c r="B339" s="34" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C339" s="34" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D339" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E339" s="34"/>
     </row>
@@ -9157,13 +9159,13 @@
         <v>90</v>
       </c>
       <c r="B340" s="34" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C340" s="34" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D340" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E340" s="34"/>
     </row>
@@ -9172,13 +9174,13 @@
         <v>90</v>
       </c>
       <c r="B341" s="34" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C341" s="34" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D341" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E341" s="34"/>
     </row>
@@ -9187,13 +9189,13 @@
         <v>90</v>
       </c>
       <c r="B342" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C342" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D342" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E342" s="34"/>
     </row>
@@ -9202,13 +9204,13 @@
         <v>90</v>
       </c>
       <c r="B343" s="34" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C343" s="34" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D343" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E343" s="34"/>
     </row>
@@ -9217,13 +9219,13 @@
         <v>90</v>
       </c>
       <c r="B344" s="34" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C344" s="34" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D344" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E344" s="34"/>
     </row>
@@ -9232,13 +9234,13 @@
         <v>90</v>
       </c>
       <c r="B345" s="34" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C345" s="34" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D345" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E345" s="34"/>
     </row>
@@ -9247,13 +9249,13 @@
         <v>90</v>
       </c>
       <c r="B346" s="34" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C346" s="34" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D346" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E346" s="34"/>
     </row>
@@ -9262,13 +9264,13 @@
         <v>90</v>
       </c>
       <c r="B347" s="34" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C347" s="34" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D347" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E347" s="34"/>
     </row>
@@ -9277,13 +9279,13 @@
         <v>90</v>
       </c>
       <c r="B348" s="34" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C348" s="34" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D348" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E348" s="34"/>
     </row>
@@ -9292,13 +9294,13 @@
         <v>90</v>
       </c>
       <c r="B349" s="34" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C349" s="34" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D349" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E349" s="34"/>
     </row>
@@ -9307,13 +9309,13 @@
         <v>90</v>
       </c>
       <c r="B350" s="34" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C350" s="34" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D350" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E350" s="34"/>
     </row>
@@ -9322,13 +9324,13 @@
         <v>90</v>
       </c>
       <c r="B351" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C351" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D351" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E351" s="34"/>
     </row>
@@ -9337,13 +9339,13 @@
         <v>90</v>
       </c>
       <c r="B352" s="34" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C352" s="34" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D352" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E352" s="34"/>
     </row>
@@ -9352,13 +9354,13 @@
         <v>90</v>
       </c>
       <c r="B353" s="34" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C353" s="34" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D353" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E353" s="34"/>
     </row>
@@ -9367,13 +9369,13 @@
         <v>90</v>
       </c>
       <c r="B354" s="34" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C354" s="34" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D354" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E354" s="34"/>
     </row>
@@ -9382,13 +9384,13 @@
         <v>90</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C355" s="34" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D355" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E355" s="34"/>
     </row>
@@ -9397,13 +9399,13 @@
         <v>90</v>
       </c>
       <c r="B356" s="34" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C356" s="34" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D356" s="34" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E356" s="34"/>
     </row>
@@ -9412,13 +9414,13 @@
         <v>90</v>
       </c>
       <c r="B357" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C357" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D357" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E357" s="34"/>
     </row>
@@ -9427,13 +9429,13 @@
         <v>90</v>
       </c>
       <c r="B358" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C358" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D358" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E358" s="34"/>
     </row>
@@ -9442,13 +9444,13 @@
         <v>90</v>
       </c>
       <c r="B359" s="34" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C359" s="34" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D359" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E359" s="34"/>
     </row>
@@ -9457,13 +9459,13 @@
         <v>90</v>
       </c>
       <c r="B360" s="34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C360" s="34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D360" s="34" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E360" s="34"/>
     </row>
@@ -9472,13 +9474,13 @@
         <v>90</v>
       </c>
       <c r="B361" s="34" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C361" s="34" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D361" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E361" s="34"/>
     </row>
@@ -9487,13 +9489,13 @@
         <v>90</v>
       </c>
       <c r="B362" s="34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C362" s="34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D362" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E362" s="34"/>
     </row>
@@ -9502,13 +9504,13 @@
         <v>90</v>
       </c>
       <c r="B363" s="34" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C363" s="34" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D363" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E363" s="34"/>
     </row>
@@ -9517,13 +9519,13 @@
         <v>90</v>
       </c>
       <c r="B364" s="34" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C364" s="34" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D364" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E364" s="34"/>
     </row>
@@ -9532,13 +9534,13 @@
         <v>90</v>
       </c>
       <c r="B365" s="34" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C365" s="34" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D365" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E365" s="34"/>
     </row>
@@ -9547,13 +9549,13 @@
         <v>90</v>
       </c>
       <c r="B366" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C366" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D366" s="34" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E366" s="34"/>
     </row>
@@ -9562,13 +9564,13 @@
         <v>90</v>
       </c>
       <c r="B367" s="34" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C367" s="34" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D367" s="34" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E367" s="34"/>
     </row>
@@ -9584,14 +9586,14 @@
         <v>91</v>
       </c>
       <c r="B369" s="34" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C369" s="34" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D369" s="34"/>
       <c r="E369" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9599,14 +9601,14 @@
         <v>91</v>
       </c>
       <c r="B370" s="34" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C370" s="34" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D370" s="34"/>
       <c r="E370" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9614,14 +9616,14 @@
         <v>91</v>
       </c>
       <c r="B371" s="34" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C371" s="34" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D371" s="34"/>
       <c r="E371" s="34" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9629,14 +9631,14 @@
         <v>91</v>
       </c>
       <c r="B372" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C372" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D372" s="34"/>
       <c r="E372" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9644,14 +9646,14 @@
         <v>91</v>
       </c>
       <c r="B373" s="34" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C373" s="34" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D373" s="34"/>
       <c r="E373" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9659,14 +9661,14 @@
         <v>91</v>
       </c>
       <c r="B374" s="34" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C374" s="34" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D374" s="34"/>
       <c r="E374" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9674,14 +9676,14 @@
         <v>91</v>
       </c>
       <c r="B375" s="34" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C375" s="34" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D375" s="34"/>
       <c r="E375" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9689,14 +9691,14 @@
         <v>91</v>
       </c>
       <c r="B376" s="34" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C376" s="34" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D376" s="34"/>
       <c r="E376" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9704,14 +9706,14 @@
         <v>91</v>
       </c>
       <c r="B377" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C377" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D377" s="34"/>
       <c r="E377" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9719,14 +9721,14 @@
         <v>91</v>
       </c>
       <c r="B378" s="34" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C378" s="34" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D378" s="34"/>
       <c r="E378" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9734,14 +9736,14 @@
         <v>91</v>
       </c>
       <c r="B379" s="34" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C379" s="34" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D379" s="34"/>
       <c r="E379" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9749,14 +9751,14 @@
         <v>91</v>
       </c>
       <c r="B380" s="34" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C380" s="34" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D380" s="34"/>
       <c r="E380" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9764,14 +9766,14 @@
         <v>91</v>
       </c>
       <c r="B381" s="34" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="C381" s="34" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D381" s="34"/>
       <c r="E381" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9779,14 +9781,14 @@
         <v>91</v>
       </c>
       <c r="B382" s="34" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C382" s="34" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D382" s="34"/>
       <c r="E382" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9794,14 +9796,14 @@
         <v>91</v>
       </c>
       <c r="B383" s="34" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C383" s="34" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D383" s="34"/>
       <c r="E383" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9809,14 +9811,14 @@
         <v>91</v>
       </c>
       <c r="B384" s="34" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C384" s="34" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D384" s="34"/>
       <c r="E384" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9824,14 +9826,14 @@
         <v>91</v>
       </c>
       <c r="B385" s="34" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C385" s="34" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D385" s="34"/>
       <c r="E385" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9839,14 +9841,14 @@
         <v>91</v>
       </c>
       <c r="B386" s="34" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C386" s="34" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D386" s="34"/>
       <c r="E386" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9854,14 +9856,14 @@
         <v>91</v>
       </c>
       <c r="B387" s="34" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C387" s="34" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D387" s="34"/>
       <c r="E387" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9869,14 +9871,14 @@
         <v>91</v>
       </c>
       <c r="B388" s="34" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C388" s="34" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D388" s="34"/>
       <c r="E388" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9884,14 +9886,14 @@
         <v>91</v>
       </c>
       <c r="B389" s="34" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C389" s="34" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D389" s="34"/>
       <c r="E389" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9899,14 +9901,14 @@
         <v>91</v>
       </c>
       <c r="B390" s="34" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C390" s="34" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D390" s="34"/>
       <c r="E390" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9914,14 +9916,14 @@
         <v>91</v>
       </c>
       <c r="B391" s="34" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="C391" s="34" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D391" s="34"/>
       <c r="E391" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9929,14 +9931,14 @@
         <v>91</v>
       </c>
       <c r="B392" s="34" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C392" s="34" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D392" s="34"/>
       <c r="E392" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9944,14 +9946,14 @@
         <v>91</v>
       </c>
       <c r="B393" s="34" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C393" s="34" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D393" s="34"/>
       <c r="E393" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9959,14 +9961,14 @@
         <v>91</v>
       </c>
       <c r="B394" s="34" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C394" s="34" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D394" s="34"/>
       <c r="E394" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9974,14 +9976,14 @@
         <v>91</v>
       </c>
       <c r="B395" s="34" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C395" s="34" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D395" s="34"/>
       <c r="E395" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9989,14 +9991,14 @@
         <v>91</v>
       </c>
       <c r="B396" s="34" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C396" s="34" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D396" s="34"/>
       <c r="E396" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -10004,14 +10006,14 @@
         <v>91</v>
       </c>
       <c r="B397" s="34" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C397" s="34" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D397" s="34"/>
       <c r="E397" s="34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -10019,14 +10021,14 @@
         <v>91</v>
       </c>
       <c r="B398" s="34" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C398" s="34" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D398" s="34"/>
       <c r="E398" s="34" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -10034,14 +10036,14 @@
         <v>91</v>
       </c>
       <c r="B399" s="34" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C399" s="34" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D399" s="34"/>
       <c r="E399" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -10049,14 +10051,14 @@
         <v>91</v>
       </c>
       <c r="B400" s="34" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C400" s="34" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D400" s="34"/>
       <c r="E400" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -10064,14 +10066,14 @@
         <v>91</v>
       </c>
       <c r="B401" s="34" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C401" s="34" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D401" s="34"/>
       <c r="E401" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -10079,14 +10081,14 @@
         <v>91</v>
       </c>
       <c r="B402" s="34" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C402" s="34" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D402" s="34"/>
       <c r="E402" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -10094,14 +10096,14 @@
         <v>91</v>
       </c>
       <c r="B403" s="34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="C403" s="34" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D403" s="34"/>
       <c r="E403" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -10109,14 +10111,14 @@
         <v>91</v>
       </c>
       <c r="B404" s="34" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C404" s="34" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D404" s="34"/>
       <c r="E404" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -10124,14 +10126,14 @@
         <v>91</v>
       </c>
       <c r="B405" s="34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C405" s="34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D405" s="34"/>
       <c r="E405" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -10139,14 +10141,14 @@
         <v>91</v>
       </c>
       <c r="B406" s="34" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C406" s="34" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D406" s="34"/>
       <c r="E406" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -10154,14 +10156,14 @@
         <v>91</v>
       </c>
       <c r="B407" s="34" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="C407" s="34" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D407" s="34"/>
       <c r="E407" s="34" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -10169,14 +10171,14 @@
         <v>91</v>
       </c>
       <c r="B408" s="34" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C408" s="34" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D408" s="34"/>
       <c r="E408" s="34" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -10184,14 +10186,14 @@
         <v>91</v>
       </c>
       <c r="B409" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C409" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D409" s="34"/>
       <c r="E409" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -10199,14 +10201,14 @@
         <v>91</v>
       </c>
       <c r="B410" s="34" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C410" s="34" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D410" s="34"/>
       <c r="E410" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10214,14 +10216,14 @@
         <v>91</v>
       </c>
       <c r="B411" s="34" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C411" s="34" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D411" s="34"/>
       <c r="E411" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10229,14 +10231,14 @@
         <v>91</v>
       </c>
       <c r="B412" s="34" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C412" s="34" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D412" s="34"/>
       <c r="E412" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10244,14 +10246,14 @@
         <v>91</v>
       </c>
       <c r="B413" s="34" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C413" s="34" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D413" s="34"/>
       <c r="E413" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10259,14 +10261,14 @@
         <v>91</v>
       </c>
       <c r="B414" s="34" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C414" s="34" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D414" s="34"/>
       <c r="E414" s="34" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10274,14 +10276,14 @@
         <v>91</v>
       </c>
       <c r="B415" s="34" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C415" s="34" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D415" s="34"/>
       <c r="E415" s="34" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10289,14 +10291,14 @@
         <v>91</v>
       </c>
       <c r="B416" s="34" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C416" s="34" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D416" s="34"/>
       <c r="E416" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10304,14 +10306,14 @@
         <v>91</v>
       </c>
       <c r="B417" s="34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C417" s="34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D417" s="34"/>
       <c r="E417" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10319,14 +10321,14 @@
         <v>91</v>
       </c>
       <c r="B418" s="34" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C418" s="34" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D418" s="34"/>
       <c r="E418" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10334,14 +10336,14 @@
         <v>91</v>
       </c>
       <c r="B419" s="34" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C419" s="34" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D419" s="34"/>
       <c r="E419" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10349,14 +10351,14 @@
         <v>91</v>
       </c>
       <c r="B420" s="34" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C420" s="34" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D420" s="34"/>
       <c r="E420" s="34" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10364,14 +10366,14 @@
         <v>91</v>
       </c>
       <c r="B421" s="34" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C421" s="34" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D421" s="34"/>
       <c r="E421" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10379,14 +10381,14 @@
         <v>91</v>
       </c>
       <c r="B422" s="34" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C422" s="34" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D422" s="34"/>
       <c r="E422" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10394,14 +10396,14 @@
         <v>91</v>
       </c>
       <c r="B423" s="34" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C423" s="34" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D423" s="34"/>
       <c r="E423" s="34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10409,14 +10411,14 @@
         <v>91</v>
       </c>
       <c r="B424" s="34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C424" s="34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D424" s="34"/>
       <c r="E424" s="34" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10424,14 +10426,14 @@
         <v>91</v>
       </c>
       <c r="B425" s="34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C425" s="34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D425" s="34"/>
       <c r="E425" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10439,14 +10441,14 @@
         <v>91</v>
       </c>
       <c r="B426" s="34" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C426" s="34" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D426" s="34"/>
       <c r="E426" s="34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10454,14 +10456,14 @@
         <v>91</v>
       </c>
       <c r="B427" s="34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C427" s="34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D427" s="34"/>
       <c r="E427" s="34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10469,14 +10471,14 @@
         <v>91</v>
       </c>
       <c r="B428" s="34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C428" s="34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D428" s="34"/>
       <c r="E428" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10484,14 +10486,14 @@
         <v>91</v>
       </c>
       <c r="B429" s="34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C429" s="34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D429" s="34"/>
       <c r="E429" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10499,14 +10501,14 @@
         <v>91</v>
       </c>
       <c r="B430" s="34" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C430" s="34" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D430" s="34"/>
       <c r="E430" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10514,14 +10516,14 @@
         <v>91</v>
       </c>
       <c r="B431" s="34" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C431" s="34" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D431" s="34"/>
       <c r="E431" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10529,14 +10531,14 @@
         <v>91</v>
       </c>
       <c r="B432" s="34" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C432" s="34" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D432" s="34"/>
       <c r="E432" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10544,14 +10546,14 @@
         <v>91</v>
       </c>
       <c r="B433" s="34" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="C433" s="34" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D433" s="34"/>
       <c r="E433" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10559,14 +10561,14 @@
         <v>91</v>
       </c>
       <c r="B434" s="34" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C434" s="34" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D434" s="34"/>
       <c r="E434" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10574,14 +10576,14 @@
         <v>91</v>
       </c>
       <c r="B435" s="34" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C435" s="34" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D435" s="34"/>
       <c r="E435" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10589,14 +10591,14 @@
         <v>91</v>
       </c>
       <c r="B436" s="34" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C436" s="34" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D436" s="34"/>
       <c r="E436" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10604,14 +10606,14 @@
         <v>91</v>
       </c>
       <c r="B437" s="34" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C437" s="34" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D437" s="34"/>
       <c r="E437" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10619,14 +10621,14 @@
         <v>91</v>
       </c>
       <c r="B438" s="34" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C438" s="34" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D438" s="34"/>
       <c r="E438" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10634,14 +10636,14 @@
         <v>91</v>
       </c>
       <c r="B439" s="34" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C439" s="34" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D439" s="34"/>
       <c r="E439" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10649,14 +10651,14 @@
         <v>91</v>
       </c>
       <c r="B440" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C440" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D440" s="34"/>
       <c r="E440" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10664,14 +10666,14 @@
         <v>91</v>
       </c>
       <c r="B441" s="34" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C441" s="34" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D441" s="34"/>
       <c r="E441" s="34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10679,14 +10681,14 @@
         <v>91</v>
       </c>
       <c r="B442" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C442" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D442" s="34"/>
       <c r="E442" s="34" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10694,14 +10696,14 @@
         <v>91</v>
       </c>
       <c r="B443" s="34" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C443" s="34" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D443" s="34"/>
       <c r="E443" s="34" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10709,14 +10711,14 @@
         <v>91</v>
       </c>
       <c r="B444" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C444" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D444" s="34"/>
       <c r="E444" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10724,14 +10726,14 @@
         <v>91</v>
       </c>
       <c r="B445" s="34" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="C445" s="34" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D445" s="34"/>
       <c r="E445" s="34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10739,14 +10741,14 @@
         <v>91</v>
       </c>
       <c r="B446" s="34" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C446" s="34" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D446" s="34"/>
       <c r="E446" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10754,14 +10756,14 @@
         <v>91</v>
       </c>
       <c r="B447" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C447" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D447" s="34"/>
       <c r="E447" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10769,14 +10771,14 @@
         <v>91</v>
       </c>
       <c r="B448" s="34" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C448" s="34" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D448" s="34"/>
       <c r="E448" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10784,14 +10786,14 @@
         <v>91</v>
       </c>
       <c r="B449" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C449" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D449" s="34"/>
       <c r="E449" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10799,14 +10801,14 @@
         <v>91</v>
       </c>
       <c r="B450" s="34" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C450" s="34" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D450" s="34"/>
       <c r="E450" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10814,14 +10816,14 @@
         <v>91</v>
       </c>
       <c r="B451" s="34" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C451" s="34" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D451" s="34"/>
       <c r="E451" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10829,14 +10831,14 @@
         <v>91</v>
       </c>
       <c r="B452" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C452" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D452" s="34"/>
       <c r="E452" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10844,14 +10846,14 @@
         <v>91</v>
       </c>
       <c r="B453" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C453" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D453" s="34"/>
       <c r="E453" s="34" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10859,14 +10861,14 @@
         <v>91</v>
       </c>
       <c r="B454" s="34" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C454" s="34" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D454" s="34"/>
       <c r="E454" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10874,14 +10876,14 @@
         <v>91</v>
       </c>
       <c r="B455" s="34" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C455" s="34" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D455" s="34"/>
       <c r="E455" s="34" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10889,14 +10891,14 @@
         <v>91</v>
       </c>
       <c r="B456" s="34" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C456" s="34" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D456" s="34"/>
       <c r="E456" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10904,14 +10906,14 @@
         <v>91</v>
       </c>
       <c r="B457" s="34" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C457" s="34" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D457" s="34"/>
       <c r="E457" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10919,14 +10921,14 @@
         <v>91</v>
       </c>
       <c r="B458" s="34" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C458" s="34" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D458" s="34"/>
       <c r="E458" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10934,14 +10936,14 @@
         <v>91</v>
       </c>
       <c r="B459" s="34" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C459" s="34" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D459" s="34"/>
       <c r="E459" s="34" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10949,14 +10951,14 @@
         <v>91</v>
       </c>
       <c r="B460" s="34" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C460" s="34" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D460" s="34"/>
       <c r="E460" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10964,14 +10966,14 @@
         <v>91</v>
       </c>
       <c r="B461" s="34" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C461" s="34" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D461" s="34"/>
       <c r="E461" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10979,14 +10981,14 @@
         <v>91</v>
       </c>
       <c r="B462" s="34" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C462" s="34" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D462" s="34"/>
       <c r="E462" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10994,14 +10996,14 @@
         <v>91</v>
       </c>
       <c r="B463" s="34" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C463" s="34" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D463" s="34"/>
       <c r="E463" s="34" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -11009,14 +11011,14 @@
         <v>91</v>
       </c>
       <c r="B464" s="34" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C464" s="34" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D464" s="34"/>
       <c r="E464" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -11024,14 +11026,14 @@
         <v>91</v>
       </c>
       <c r="B465" s="34" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C465" s="34" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D465" s="34"/>
       <c r="E465" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -11039,14 +11041,14 @@
         <v>91</v>
       </c>
       <c r="B466" s="34" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C466" s="34" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D466" s="34"/>
       <c r="E466" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -11054,14 +11056,14 @@
         <v>91</v>
       </c>
       <c r="B467" s="34" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C467" s="34" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D467" s="34"/>
       <c r="E467" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -11069,14 +11071,14 @@
         <v>91</v>
       </c>
       <c r="B468" s="34" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C468" s="34" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D468" s="34"/>
       <c r="E468" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -11084,14 +11086,14 @@
         <v>91</v>
       </c>
       <c r="B469" s="34" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C469" s="34" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D469" s="34"/>
       <c r="E469" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11099,14 +11101,14 @@
         <v>91</v>
       </c>
       <c r="B470" s="34" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C470" s="34" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D470" s="34"/>
       <c r="E470" s="34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11114,14 +11116,14 @@
         <v>91</v>
       </c>
       <c r="B471" s="34" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C471" s="34" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D471" s="34"/>
       <c r="E471" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11129,14 +11131,14 @@
         <v>91</v>
       </c>
       <c r="B472" s="34" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C472" s="34" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D472" s="34"/>
       <c r="E472" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11144,14 +11146,14 @@
         <v>91</v>
       </c>
       <c r="B473" s="34" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C473" s="34" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D473" s="34"/>
       <c r="E473" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11159,14 +11161,14 @@
         <v>91</v>
       </c>
       <c r="B474" s="34" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C474" s="34" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D474" s="34"/>
       <c r="E474" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11174,14 +11176,14 @@
         <v>91</v>
       </c>
       <c r="B475" s="34" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C475" s="34" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D475" s="34"/>
       <c r="E475" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11189,14 +11191,14 @@
         <v>91</v>
       </c>
       <c r="B476" s="34" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="C476" s="34" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D476" s="34"/>
       <c r="E476" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11204,14 +11206,14 @@
         <v>91</v>
       </c>
       <c r="B477" s="34" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C477" s="34" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D477" s="34"/>
       <c r="E477" s="34" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11219,14 +11221,14 @@
         <v>91</v>
       </c>
       <c r="B478" s="34" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C478" s="34" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D478" s="34"/>
       <c r="E478" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11234,14 +11236,14 @@
         <v>91</v>
       </c>
       <c r="B479" s="34" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C479" s="34" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D479" s="34"/>
       <c r="E479" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11249,14 +11251,14 @@
         <v>91</v>
       </c>
       <c r="B480" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C480" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D480" s="34"/>
       <c r="E480" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11264,14 +11266,14 @@
         <v>91</v>
       </c>
       <c r="B481" s="34" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C481" s="34" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D481" s="34"/>
       <c r="E481" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11279,14 +11281,14 @@
         <v>91</v>
       </c>
       <c r="B482" s="34" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C482" s="34" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D482" s="34"/>
       <c r="E482" s="34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11294,14 +11296,14 @@
         <v>91</v>
       </c>
       <c r="B483" s="34" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C483" s="34" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D483" s="34"/>
       <c r="E483" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11309,14 +11311,14 @@
         <v>91</v>
       </c>
       <c r="B484" s="34" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C484" s="34" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D484" s="34"/>
       <c r="E484" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11324,14 +11326,14 @@
         <v>91</v>
       </c>
       <c r="B485" s="34" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C485" s="34" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D485" s="34"/>
       <c r="E485" s="34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11339,14 +11341,14 @@
         <v>91</v>
       </c>
       <c r="B486" s="34" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C486" s="34" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D486" s="34"/>
       <c r="E486" s="34" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11354,14 +11356,14 @@
         <v>91</v>
       </c>
       <c r="B487" s="34" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C487" s="34" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D487" s="34"/>
       <c r="E487" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11369,14 +11371,14 @@
         <v>91</v>
       </c>
       <c r="B488" s="34" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="C488" s="34" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D488" s="34"/>
       <c r="E488" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11384,14 +11386,14 @@
         <v>91</v>
       </c>
       <c r="B489" s="34" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="C489" s="34" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D489" s="34"/>
       <c r="E489" s="34" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11399,14 +11401,14 @@
         <v>91</v>
       </c>
       <c r="B490" s="34" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C490" s="34" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D490" s="34"/>
       <c r="E490" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11414,14 +11416,14 @@
         <v>91</v>
       </c>
       <c r="B491" s="34" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C491" s="34" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D491" s="34"/>
       <c r="E491" s="34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11429,14 +11431,14 @@
         <v>91</v>
       </c>
       <c r="B492" s="34" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C492" s="34" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D492" s="34"/>
       <c r="E492" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11444,14 +11446,14 @@
         <v>91</v>
       </c>
       <c r="B493" s="34" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C493" s="34" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D493" s="34"/>
       <c r="E493" s="34" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11459,14 +11461,14 @@
         <v>91</v>
       </c>
       <c r="B494" s="34" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C494" s="34" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D494" s="34"/>
       <c r="E494" s="34" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11474,14 +11476,14 @@
         <v>91</v>
       </c>
       <c r="B495" s="34" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C495" s="34" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D495" s="34"/>
       <c r="E495" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11489,14 +11491,14 @@
         <v>91</v>
       </c>
       <c r="B496" s="34" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C496" s="34" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D496" s="34"/>
       <c r="E496" s="34" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11504,14 +11506,14 @@
         <v>91</v>
       </c>
       <c r="B497" s="34" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C497" s="34" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D497" s="34"/>
       <c r="E497" s="34" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11519,14 +11521,14 @@
         <v>91</v>
       </c>
       <c r="B498" s="34" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="C498" s="34" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D498" s="34"/>
       <c r="E498" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11534,14 +11536,14 @@
         <v>91</v>
       </c>
       <c r="B499" s="34" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="C499" s="34" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D499" s="34"/>
       <c r="E499" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11549,14 +11551,14 @@
         <v>91</v>
       </c>
       <c r="B500" s="34" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C500" s="34" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D500" s="34"/>
       <c r="E500" s="34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11564,14 +11566,14 @@
         <v>91</v>
       </c>
       <c r="B501" s="34" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C501" s="34" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D501" s="34"/>
       <c r="E501" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11579,14 +11581,14 @@
         <v>91</v>
       </c>
       <c r="B502" s="34" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="C502" s="34" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D502" s="34"/>
       <c r="E502" s="34" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11594,14 +11596,14 @@
         <v>91</v>
       </c>
       <c r="B503" s="34" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C503" s="34" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D503" s="34"/>
       <c r="E503" s="34" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11609,14 +11611,14 @@
         <v>91</v>
       </c>
       <c r="B504" s="34" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C504" s="34" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D504" s="34"/>
       <c r="E504" s="34" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11624,14 +11626,14 @@
         <v>91</v>
       </c>
       <c r="B505" s="34" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="C505" s="34" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D505" s="34"/>
       <c r="E505" s="34" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11639,14 +11641,14 @@
         <v>91</v>
       </c>
       <c r="B506" s="34" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C506" s="34" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D506" s="34"/>
       <c r="E506" s="34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11654,14 +11656,14 @@
         <v>91</v>
       </c>
       <c r="B507" s="34" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="C507" s="34" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D507" s="34"/>
       <c r="E507" s="34" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11669,14 +11671,14 @@
         <v>91</v>
       </c>
       <c r="B508" s="34" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C508" s="34" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D508" s="34"/>
       <c r="E508" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11684,14 +11686,14 @@
         <v>91</v>
       </c>
       <c r="B509" s="34" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C509" s="34" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D509" s="34"/>
       <c r="E509" s="34" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11699,14 +11701,14 @@
         <v>91</v>
       </c>
       <c r="B510" s="34" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C510" s="34" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D510" s="34"/>
       <c r="E510" s="34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11714,14 +11716,14 @@
         <v>91</v>
       </c>
       <c r="B511" s="34" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C511" s="34" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D511" s="34"/>
       <c r="E511" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11729,14 +11731,14 @@
         <v>91</v>
       </c>
       <c r="B512" s="34" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C512" s="34" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D512" s="34"/>
       <c r="E512" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11744,14 +11746,14 @@
         <v>91</v>
       </c>
       <c r="B513" s="34" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C513" s="34" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D513" s="34"/>
       <c r="E513" s="34" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11759,14 +11761,14 @@
         <v>91</v>
       </c>
       <c r="B514" s="34" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C514" s="34" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D514" s="34"/>
       <c r="E514" s="34" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11774,14 +11776,14 @@
         <v>91</v>
       </c>
       <c r="B515" s="34" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C515" s="34" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D515" s="34"/>
       <c r="E515" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11789,14 +11791,14 @@
         <v>91</v>
       </c>
       <c r="B516" s="34" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C516" s="34" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D516" s="34"/>
       <c r="E516" s="34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11804,14 +11806,14 @@
         <v>91</v>
       </c>
       <c r="B517" s="34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C517" s="34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D517" s="34"/>
       <c r="E517" s="34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11819,14 +11821,14 @@
         <v>91</v>
       </c>
       <c r="B518" s="34" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="C518" s="34" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D518" s="34"/>
       <c r="E518" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11834,14 +11836,14 @@
         <v>91</v>
       </c>
       <c r="B519" s="34" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C519" s="34" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D519" s="34"/>
       <c r="E519" s="34" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11849,14 +11851,14 @@
         <v>91</v>
       </c>
       <c r="B520" s="34" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C520" s="34" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="D520" s="34"/>
       <c r="E520" s="34" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11864,14 +11866,14 @@
         <v>91</v>
       </c>
       <c r="B521" s="34" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C521" s="34" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D521" s="34"/>
       <c r="E521" s="34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11879,14 +11881,14 @@
         <v>91</v>
       </c>
       <c r="B522" s="34" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C522" s="34" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D522" s="34"/>
       <c r="E522" s="34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -11894,14 +11896,14 @@
         <v>91</v>
       </c>
       <c r="B523" s="34" t="s">
-        <v>685</v>
+        <v>818</v>
       </c>
       <c r="C523" s="34" t="s">
-        <v>685</v>
+        <v>818</v>
       </c>
       <c r="D523" s="34"/>
       <c r="E523" s="34" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -11909,14 +11911,14 @@
         <v>91</v>
       </c>
       <c r="B524" s="34" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C524" s="34" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="D524" s="34"/>
       <c r="E524" s="34" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -11924,14 +11926,14 @@
         <v>91</v>
       </c>
       <c r="B525" s="34" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C525" s="34" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D525" s="34"/>
       <c r="E525" s="34" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11939,14 +11941,14 @@
         <v>91</v>
       </c>
       <c r="B526" s="34" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C526" s="34" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="D526" s="34"/>
       <c r="E526" s="34" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -11954,14 +11956,14 @@
         <v>91</v>
       </c>
       <c r="B527" s="34" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C527" s="34" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="D527" s="34"/>
       <c r="E527" s="34" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -11969,14 +11971,14 @@
         <v>91</v>
       </c>
       <c r="B528" s="34" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C528" s="34" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="D528" s="34"/>
       <c r="E528" s="34" t="s">
-        <v>477</v>
+        <v>398</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -11984,14 +11986,14 @@
         <v>91</v>
       </c>
       <c r="B529" s="34" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C529" s="34" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="D529" s="34"/>
       <c r="E529" s="34" t="s">
-        <v>524</v>
+        <v>473</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -11999,14 +12001,14 @@
         <v>91</v>
       </c>
       <c r="B530" s="34" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C530" s="34" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D530" s="34"/>
       <c r="E530" s="34" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12014,14 +12016,14 @@
         <v>91</v>
       </c>
       <c r="B531" s="34" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C531" s="34" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="D531" s="34"/>
       <c r="E531" s="34" t="s">
-        <v>425</v>
+        <v>528</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12029,14 +12031,14 @@
         <v>91</v>
       </c>
       <c r="B532" s="34" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C532" s="34" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D532" s="34"/>
       <c r="E532" s="34" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12044,14 +12046,14 @@
         <v>91</v>
       </c>
       <c r="B533" s="34" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C533" s="34" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D533" s="34"/>
       <c r="E533" s="34" t="s">
-        <v>498</v>
+        <v>444</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12059,14 +12061,14 @@
         <v>91</v>
       </c>
       <c r="B534" s="34" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C534" s="34" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="D534" s="34"/>
       <c r="E534" s="34" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12074,14 +12076,14 @@
         <v>91</v>
       </c>
       <c r="B535" s="34" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C535" s="34" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D535" s="34"/>
       <c r="E535" s="34" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12089,14 +12091,14 @@
         <v>91</v>
       </c>
       <c r="B536" s="34" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C536" s="34" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D536" s="34"/>
       <c r="E536" s="34" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12104,44 +12106,44 @@
         <v>91</v>
       </c>
       <c r="B537" s="34" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C537" s="34" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="D537" s="34"/>
       <c r="E537" s="34" t="s">
-        <v>401</v>
+        <v>520</v>
       </c>
     </row>
     <row r="538" spans="1:5">
-      <c r="A538" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B538" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="C538" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="D538" s="35"/>
-      <c r="E538" s="35" t="s">
-        <v>417</v>
+      <c r="A538" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B538" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="C538" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="D538" s="34"/>
+      <c r="E538" s="34" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="539" spans="1:5">
-      <c r="A539" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B539" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="C539" s="34" t="s">
-        <v>701</v>
-      </c>
-      <c r="D539" s="34"/>
-      <c r="E539" s="34" t="s">
-        <v>523</v>
+      <c r="A539" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B539" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="C539" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="D539" s="35"/>
+      <c r="E539" s="35" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12149,14 +12151,14 @@
         <v>91</v>
       </c>
       <c r="B540" s="34" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C540" s="34" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="D540" s="34"/>
       <c r="E540" s="34" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12164,14 +12166,14 @@
         <v>91</v>
       </c>
       <c r="B541" s="34" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C541" s="34" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="D541" s="34"/>
       <c r="E541" s="34" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12179,14 +12181,14 @@
         <v>91</v>
       </c>
       <c r="B542" s="34" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C542" s="34" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D542" s="34"/>
       <c r="E542" s="34" t="s">
-        <v>405</v>
+        <v>493</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12194,14 +12196,14 @@
         <v>91</v>
       </c>
       <c r="B543" s="34" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C543" s="34" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="D543" s="34"/>
       <c r="E543" s="34" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12209,14 +12211,14 @@
         <v>91</v>
       </c>
       <c r="B544" s="34" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C544" s="34" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D544" s="34"/>
       <c r="E544" s="34" t="s">
-        <v>503</v>
+        <v>404</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12224,14 +12226,14 @@
         <v>91</v>
       </c>
       <c r="B545" s="34" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C545" s="34" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D545" s="34"/>
       <c r="E545" s="34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12239,14 +12241,14 @@
         <v>91</v>
       </c>
       <c r="B546" s="34" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C546" s="34" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="D546" s="34"/>
       <c r="E546" s="34" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12254,14 +12256,14 @@
         <v>91</v>
       </c>
       <c r="B547" s="34" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C547" s="34" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D547" s="34"/>
       <c r="E547" s="34" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12269,14 +12271,14 @@
         <v>91</v>
       </c>
       <c r="B548" s="34" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C548" s="34" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D548" s="34"/>
       <c r="E548" s="34" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12284,14 +12286,14 @@
         <v>91</v>
       </c>
       <c r="B549" s="34" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C549" s="34" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D549" s="34"/>
       <c r="E549" s="34" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12299,14 +12301,14 @@
         <v>91</v>
       </c>
       <c r="B550" s="34" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C550" s="34" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D550" s="34"/>
       <c r="E550" s="34" t="s">
-        <v>508</v>
+        <v>439</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12314,14 +12316,14 @@
         <v>91</v>
       </c>
       <c r="B551" s="34" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C551" s="34" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D551" s="34"/>
       <c r="E551" s="34" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12329,14 +12331,14 @@
         <v>91</v>
       </c>
       <c r="B552" s="34" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C552" s="34" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="D552" s="34"/>
       <c r="E552" s="34" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12344,14 +12346,14 @@
         <v>91</v>
       </c>
       <c r="B553" s="34" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C553" s="34" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D553" s="34"/>
       <c r="E553" s="34" t="s">
-        <v>498</v>
+        <v>415</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12359,14 +12361,14 @@
         <v>91</v>
       </c>
       <c r="B554" s="34" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C554" s="34" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="D554" s="34"/>
       <c r="E554" s="34" t="s">
-        <v>397</v>
+        <v>494</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12374,14 +12376,14 @@
         <v>91</v>
       </c>
       <c r="B555" s="34" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C555" s="34" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="D555" s="34"/>
       <c r="E555" s="34" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12389,14 +12391,14 @@
         <v>91</v>
       </c>
       <c r="B556" s="34" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C556" s="34" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D556" s="34"/>
       <c r="E556" s="34" t="s">
-        <v>404</v>
+        <v>423</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12404,14 +12406,14 @@
         <v>91</v>
       </c>
       <c r="B557" s="34" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C557" s="34" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="D557" s="34"/>
       <c r="E557" s="34" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12419,14 +12421,14 @@
         <v>91</v>
       </c>
       <c r="B558" s="34" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C558" s="34" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D558" s="34"/>
       <c r="E558" s="34" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12434,14 +12436,14 @@
         <v>91</v>
       </c>
       <c r="B559" s="34" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C559" s="34" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="D559" s="34"/>
       <c r="E559" s="34" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12449,14 +12451,14 @@
         <v>91</v>
       </c>
       <c r="B560" s="34" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C560" s="34" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D560" s="34"/>
       <c r="E560" s="34" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12464,14 +12466,14 @@
         <v>91</v>
       </c>
       <c r="B561" s="34" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C561" s="34" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="D561" s="34"/>
       <c r="E561" s="34" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12479,14 +12481,14 @@
         <v>91</v>
       </c>
       <c r="B562" s="34" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C562" s="34" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D562" s="34"/>
       <c r="E562" s="34" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12494,14 +12496,14 @@
         <v>91</v>
       </c>
       <c r="B563" s="34" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C563" s="34" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D563" s="34"/>
       <c r="E563" s="34" t="s">
-        <v>497</v>
+        <v>390</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12509,14 +12511,14 @@
         <v>91</v>
       </c>
       <c r="B564" s="34" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C564" s="34" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D564" s="34"/>
       <c r="E564" s="34" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12524,14 +12526,14 @@
         <v>91</v>
       </c>
       <c r="B565" s="34" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C565" s="34" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D565" s="34"/>
       <c r="E565" s="34" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12539,14 +12541,14 @@
         <v>91</v>
       </c>
       <c r="B566" s="34" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C566" s="34" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="D566" s="34"/>
       <c r="E566" s="34" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12554,14 +12556,14 @@
         <v>91</v>
       </c>
       <c r="B567" s="34" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C567" s="34" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D567" s="34"/>
       <c r="E567" s="34" t="s">
-        <v>532</v>
+        <v>434</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12569,14 +12571,14 @@
         <v>91</v>
       </c>
       <c r="B568" s="34" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C568" s="34" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="D568" s="34"/>
       <c r="E568" s="34" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12584,14 +12586,14 @@
         <v>91</v>
       </c>
       <c r="B569" s="34" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C569" s="34" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="D569" s="34"/>
       <c r="E569" s="34" t="s">
-        <v>397</v>
+        <v>469</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12599,14 +12601,14 @@
         <v>91</v>
       </c>
       <c r="B570" s="34" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C570" s="34" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D570" s="34"/>
       <c r="E570" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12614,14 +12616,14 @@
         <v>91</v>
       </c>
       <c r="B571" s="34" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C571" s="34" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="D571" s="34"/>
       <c r="E571" s="34" t="s">
-        <v>517</v>
+        <v>390</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12629,14 +12631,14 @@
         <v>91</v>
       </c>
       <c r="B572" s="34" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C572" s="34" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="D572" s="34"/>
       <c r="E572" s="34" t="s">
-        <v>425</v>
+        <v>513</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12644,14 +12646,14 @@
         <v>91</v>
       </c>
       <c r="B573" s="34" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C573" s="34" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D573" s="34"/>
       <c r="E573" s="34" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12659,14 +12661,14 @@
         <v>91</v>
       </c>
       <c r="B574" s="34" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C574" s="34" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D574" s="34"/>
       <c r="E574" s="34" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12674,14 +12676,14 @@
         <v>91</v>
       </c>
       <c r="B575" s="34" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C575" s="34" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="D575" s="34"/>
       <c r="E575" s="34" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12689,18 +12691,33 @@
         <v>91</v>
       </c>
       <c r="B576" s="34" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C576" s="34" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D576" s="34"/>
       <c r="E576" s="34" t="s">
-        <v>465</v>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5">
+      <c r="A577" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B577" s="34" t="s">
+        <v>734</v>
+      </c>
+      <c r="C577" s="34" t="s">
+        <v>734</v>
+      </c>
+      <c r="D577" s="34"/>
+      <c r="E577" s="34" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B71">
+  <sortState ref="A2:B71">
     <sortCondition ref="B2:B71"/>
   </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -12709,17 +12726,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5859375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -12738,10 +12755,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B2" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C2">
         <v>20210610</v>
